--- a/tables/outlier_all_stats-100-1093.xlsx
+++ b/tables/outlier_all_stats-100-1093.xlsx
@@ -282,8 +282,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -323,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,6 +347,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +632,8 @@
   <dimension ref="A1:AJ477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M448" sqref="M448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,9 +648,9 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="7" customWidth="1"/>
-    <col min="12" max="15" width="8.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="7" customWidth="1"/>
+    <col min="12" max="15" width="9.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="7" customWidth="1"/>
     <col min="17" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="1" bestFit="1" customWidth="1"/>
@@ -10897,37 +10900,37 @@
       <c r="J138" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="7">
+      <c r="K138" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L138" s="1">
+      <c r="L138" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M138" s="1">
+      <c r="M138" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N138" s="1">
+      <c r="N138" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O138" s="1">
+      <c r="O138" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P138" s="7">
+      <c r="P138" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q138" s="2">
+      <c r="Q138" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R138" s="2">
+      <c r="R138" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S138" s="9">
+      <c r="S138" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T138" s="1">
+      <c r="T138" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U138" s="7">
+      <c r="U138" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V138" s="7">
@@ -10998,37 +11001,37 @@
       <c r="J139" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="7">
+      <c r="K139" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L139" s="1">
+      <c r="L139" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M139" s="1">
+      <c r="M139" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N139" s="1">
+      <c r="N139" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O139" s="1">
+      <c r="O139" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P139" s="7">
+      <c r="P139" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q139" s="2">
+      <c r="Q139" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R139" s="2">
+      <c r="R139" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S139" s="9">
+      <c r="S139" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T139" s="1">
+      <c r="T139" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U139" s="7">
+      <c r="U139" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V139" s="7">
@@ -11099,37 +11102,37 @@
       <c r="J140" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="7">
+      <c r="K140" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L140" s="1">
+      <c r="L140" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M140" s="1">
+      <c r="M140" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N140" s="1">
+      <c r="N140" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O140" s="1">
+      <c r="O140" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P140" s="7">
+      <c r="P140" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q140" s="2">
+      <c r="Q140" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R140" s="2">
+      <c r="R140" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S140" s="9">
+      <c r="S140" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T140" s="1">
+      <c r="T140" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U140" s="7">
+      <c r="U140" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V140" s="7">
@@ -11200,37 +11203,37 @@
       <c r="J141" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="7">
+      <c r="K141" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L141" s="1">
+      <c r="L141" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M141" s="1">
+      <c r="M141" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N141" s="1">
+      <c r="N141" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O141" s="1">
+      <c r="O141" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P141" s="7">
+      <c r="P141" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q141" s="2">
+      <c r="Q141" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R141" s="2">
+      <c r="R141" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S141" s="9">
+      <c r="S141" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T141" s="1">
+      <c r="T141" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U141" s="7">
+      <c r="U141" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V141" s="7">
@@ -11301,37 +11304,37 @@
       <c r="J142" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="7">
+      <c r="K142" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L142" s="1">
+      <c r="L142" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M142" s="1">
+      <c r="M142" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N142" s="1">
+      <c r="N142" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O142" s="1">
+      <c r="O142" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P142" s="7">
+      <c r="P142" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q142" s="2">
+      <c r="Q142" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R142" s="2">
+      <c r="R142" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S142" s="9">
+      <c r="S142" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T142" s="1">
+      <c r="T142" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U142" s="7">
+      <c r="U142" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V142" s="7">
@@ -11402,37 +11405,37 @@
       <c r="J143" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="7">
+      <c r="K143" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L143" s="1">
+      <c r="L143" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M143" s="1">
+      <c r="M143" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N143" s="1">
+      <c r="N143" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O143" s="1">
+      <c r="O143" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P143" s="7">
+      <c r="P143" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q143" s="2">
+      <c r="Q143" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R143" s="2">
+      <c r="R143" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S143" s="9">
+      <c r="S143" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T143" s="1">
+      <c r="T143" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U143" s="7">
+      <c r="U143" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V143" s="7">
@@ -11503,37 +11506,37 @@
       <c r="J144" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="7">
+      <c r="K144" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L144" s="1">
+      <c r="L144" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M144" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N144" s="1">
+      <c r="N144" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O144" s="1">
+      <c r="O144" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P144" s="7">
+      <c r="P144" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q144" s="2">
+      <c r="Q144" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R144" s="2">
+      <c r="R144" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S144" s="9">
+      <c r="S144" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T144" s="1">
+      <c r="T144" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U144" s="7">
+      <c r="U144" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V144" s="7">
@@ -11604,37 +11607,37 @@
       <c r="J145" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="7">
+      <c r="K145" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L145" s="1">
+      <c r="L145" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M145" s="1">
+      <c r="M145" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N145" s="1">
+      <c r="N145" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O145" s="1">
+      <c r="O145" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P145" s="7">
+      <c r="P145" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q145" s="2">
+      <c r="Q145" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R145" s="2">
+      <c r="R145" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S145" s="9">
+      <c r="S145" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T145" s="1">
+      <c r="T145" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U145" s="7">
+      <c r="U145" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V145" s="7">
@@ -11705,37 +11708,37 @@
       <c r="J146" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="7">
+      <c r="K146" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L146" s="1">
+      <c r="L146" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M146" s="1">
+      <c r="M146" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N146" s="1">
+      <c r="N146" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O146" s="1">
+      <c r="O146" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P146" s="7">
+      <c r="P146" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q146" s="2">
+      <c r="Q146" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R146" s="2">
+      <c r="R146" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S146" s="9">
+      <c r="S146" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T146" s="1">
+      <c r="T146" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U146" s="7">
+      <c r="U146" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V146" s="7">
@@ -11806,37 +11809,37 @@
       <c r="J147" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="7">
+      <c r="K147" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L147" s="1">
+      <c r="L147" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M147" s="1">
+      <c r="M147" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N147" s="1">
+      <c r="N147" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O147" s="1">
+      <c r="O147" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P147" s="7">
+      <c r="P147" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q147" s="2">
+      <c r="Q147" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R147" s="2">
+      <c r="R147" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S147" s="9">
+      <c r="S147" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T147" s="1">
+      <c r="T147" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U147" s="7">
+      <c r="U147" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V147" s="7">
@@ -11907,37 +11910,37 @@
       <c r="J148" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="7">
+      <c r="K148" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L148" s="1">
+      <c r="L148" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M148" s="1">
+      <c r="M148" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N148" s="1">
+      <c r="N148" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O148" s="1">
+      <c r="O148" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P148" s="7">
+      <c r="P148" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q148" s="2">
+      <c r="Q148" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R148" s="2">
+      <c r="R148" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S148" s="9">
+      <c r="S148" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T148" s="1">
+      <c r="T148" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U148" s="7">
+      <c r="U148" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V148" s="7">
@@ -12008,37 +12011,37 @@
       <c r="J149" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="7">
+      <c r="K149" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L149" s="1">
+      <c r="L149" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M149" s="1">
+      <c r="M149" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N149" s="1">
+      <c r="N149" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O149" s="1">
+      <c r="O149" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P149" s="7">
+      <c r="P149" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q149" s="2">
+      <c r="Q149" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R149" s="2">
+      <c r="R149" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S149" s="9">
+      <c r="S149" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T149" s="1">
+      <c r="T149" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U149" s="7">
+      <c r="U149" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V149" s="7">
@@ -12109,37 +12112,37 @@
       <c r="J150" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="7">
+      <c r="K150" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L150" s="1">
+      <c r="L150" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M150" s="1">
+      <c r="M150" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N150" s="1">
+      <c r="N150" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O150" s="1">
+      <c r="O150" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P150" s="7">
+      <c r="P150" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q150" s="2">
+      <c r="Q150" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R150" s="2">
+      <c r="R150" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S150" s="9">
+      <c r="S150" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T150" s="1">
+      <c r="T150" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U150" s="7">
+      <c r="U150" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V150" s="7">
@@ -12210,37 +12213,37 @@
       <c r="J151" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="7">
+      <c r="K151" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L151" s="1">
+      <c r="L151" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M151" s="1">
+      <c r="M151" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N151" s="1">
+      <c r="N151" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O151" s="1">
+      <c r="O151" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P151" s="7">
+      <c r="P151" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q151" s="2">
+      <c r="Q151" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R151" s="2">
+      <c r="R151" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S151" s="9">
+      <c r="S151" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T151" s="1">
+      <c r="T151" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U151" s="7">
+      <c r="U151" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V151" s="7">
@@ -12314,37 +12317,37 @@
       <c r="J152" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="7">
+      <c r="K152" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L152" s="1">
+      <c r="L152" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M152" s="1">
+      <c r="M152" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N152" s="1">
+      <c r="N152" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O152" s="1">
+      <c r="O152" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P152" s="7">
+      <c r="P152" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q152" s="2">
+      <c r="Q152" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R152" s="2">
+      <c r="R152" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S152" s="9">
+      <c r="S152" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T152" s="1">
+      <c r="T152" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U152" s="7">
+      <c r="U152" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V152" s="7">
@@ -12415,37 +12418,37 @@
       <c r="J153" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="7">
+      <c r="K153" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L153" s="1">
+      <c r="L153" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M153" s="1">
+      <c r="M153" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N153" s="1">
+      <c r="N153" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O153" s="1">
+      <c r="O153" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P153" s="7">
+      <c r="P153" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q153" s="2">
+      <c r="Q153" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R153" s="2">
+      <c r="R153" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S153" s="9">
+      <c r="S153" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T153" s="1">
+      <c r="T153" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U153" s="7">
+      <c r="U153" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V153" s="7">
@@ -12516,37 +12519,37 @@
       <c r="J154" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="7">
+      <c r="K154" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L154" s="1">
+      <c r="L154" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M154" s="1">
+      <c r="M154" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N154" s="1">
+      <c r="N154" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O154" s="1">
+      <c r="O154" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P154" s="7">
+      <c r="P154" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q154" s="2">
+      <c r="Q154" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R154" s="2">
+      <c r="R154" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S154" s="9">
+      <c r="S154" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T154" s="1">
+      <c r="T154" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U154" s="7">
+      <c r="U154" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V154" s="7">
@@ -12617,37 +12620,37 @@
       <c r="J155" t="s">
         <v>11</v>
       </c>
-      <c r="K155" s="7">
+      <c r="K155" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L155" s="1">
+      <c r="L155" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M155" s="1">
+      <c r="M155" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N155" s="1">
+      <c r="N155" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O155" s="1">
+      <c r="O155" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P155" s="7">
+      <c r="P155" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q155" s="2">
+      <c r="Q155" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R155" s="2">
+      <c r="R155" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S155" s="9">
+      <c r="S155" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T155" s="1">
+      <c r="T155" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U155" s="7">
+      <c r="U155" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V155" s="7">
@@ -12718,37 +12721,37 @@
       <c r="J156" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="7">
+      <c r="K156" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L156" s="1">
+      <c r="L156" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M156" s="1">
+      <c r="M156" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N156" s="1">
+      <c r="N156" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O156" s="1">
+      <c r="O156" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P156" s="7">
+      <c r="P156" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q156" s="2">
+      <c r="Q156" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R156" s="2">
+      <c r="R156" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S156" s="9">
+      <c r="S156" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T156" s="1">
+      <c r="T156" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U156" s="7">
+      <c r="U156" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V156" s="7">
@@ -12819,37 +12822,37 @@
       <c r="J157" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="7">
+      <c r="K157" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L157" s="1">
+      <c r="L157" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M157" s="1">
+      <c r="M157" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N157" s="1">
+      <c r="N157" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O157" s="1">
+      <c r="O157" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P157" s="7">
+      <c r="P157" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q157" s="2">
+      <c r="Q157" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R157" s="2">
+      <c r="R157" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S157" s="9">
+      <c r="S157" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T157" s="1">
+      <c r="T157" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U157" s="7">
+      <c r="U157" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V157" s="7">
@@ -12920,37 +12923,37 @@
       <c r="J158" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="7">
+      <c r="K158" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L158" s="1">
+      <c r="L158" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M158" s="1">
+      <c r="M158" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N158" s="1">
+      <c r="N158" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O158" s="1">
+      <c r="O158" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P158" s="7">
+      <c r="P158" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q158" s="2">
+      <c r="Q158" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R158" s="2">
+      <c r="R158" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S158" s="9">
+      <c r="S158" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T158" s="1">
+      <c r="T158" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U158" s="7">
+      <c r="U158" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V158" s="7">
@@ -13021,37 +13024,37 @@
       <c r="J159" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="7">
+      <c r="K159" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L159" s="1">
+      <c r="L159" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M159" s="1">
+      <c r="M159" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N159" s="1">
+      <c r="N159" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O159" s="1">
+      <c r="O159" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P159" s="7">
+      <c r="P159" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q159" s="2">
+      <c r="Q159" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R159" s="2">
+      <c r="R159" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S159" s="9">
+      <c r="S159" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T159" s="1">
+      <c r="T159" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U159" s="7">
+      <c r="U159" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V159" s="7">
@@ -13122,37 +13125,37 @@
       <c r="J160" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="7">
+      <c r="K160" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L160" s="1">
+      <c r="L160" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M160" s="1">
+      <c r="M160" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N160" s="1">
+      <c r="N160" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O160" s="1">
+      <c r="O160" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P160" s="7">
+      <c r="P160" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q160" s="2">
+      <c r="Q160" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R160" s="2">
+      <c r="R160" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S160" s="9">
+      <c r="S160" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T160" s="1">
+      <c r="T160" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U160" s="7">
+      <c r="U160" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V160" s="7">
@@ -13223,37 +13226,37 @@
       <c r="J161" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="7">
+      <c r="K161" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L161" s="1">
+      <c r="L161" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M161" s="1">
+      <c r="M161" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N161" s="1">
+      <c r="N161" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O161" s="1">
+      <c r="O161" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P161" s="7">
+      <c r="P161" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q161" s="2">
+      <c r="Q161" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R161" s="2">
+      <c r="R161" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S161" s="9">
+      <c r="S161" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T161" s="1">
+      <c r="T161" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U161" s="7">
+      <c r="U161" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V161" s="7">
@@ -13324,37 +13327,37 @@
       <c r="J162" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="7">
+      <c r="K162" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L162" s="1">
+      <c r="L162" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M162" s="1">
+      <c r="M162" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N162" s="1">
+      <c r="N162" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O162" s="1">
+      <c r="O162" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P162" s="7">
+      <c r="P162" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q162" s="2">
+      <c r="Q162" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R162" s="2">
+      <c r="R162" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S162" s="9">
+      <c r="S162" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T162" s="1">
+      <c r="T162" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U162" s="7">
+      <c r="U162" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V162" s="7">
@@ -13428,37 +13431,37 @@
       <c r="J163" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="7">
+      <c r="K163" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L163" s="1">
+      <c r="L163" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M163" s="1">
+      <c r="M163" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N163" s="1">
+      <c r="N163" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O163" s="1">
+      <c r="O163" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P163" s="7">
+      <c r="P163" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q163" s="2">
+      <c r="Q163" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R163" s="2">
+      <c r="R163" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S163" s="9">
+      <c r="S163" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T163" s="1">
+      <c r="T163" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U163" s="7">
+      <c r="U163" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V163" s="7">
@@ -13529,37 +13532,37 @@
       <c r="J164" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="7">
+      <c r="K164" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L164" s="1">
+      <c r="L164" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M164" s="1">
+      <c r="M164" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N164" s="1">
+      <c r="N164" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O164" s="1">
+      <c r="O164" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P164" s="7">
+      <c r="P164" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q164" s="2">
+      <c r="Q164" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R164" s="2">
+      <c r="R164" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S164" s="9">
+      <c r="S164" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T164" s="1">
+      <c r="T164" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U164" s="7">
+      <c r="U164" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V164" s="7">
@@ -13630,37 +13633,37 @@
       <c r="J165" t="s">
         <v>11</v>
       </c>
-      <c r="K165" s="7">
+      <c r="K165" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L165" s="1">
+      <c r="L165" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M165" s="1">
+      <c r="M165" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N165" s="1">
+      <c r="N165" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O165" s="1">
+      <c r="O165" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P165" s="7">
+      <c r="P165" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q165" s="2">
+      <c r="Q165" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R165" s="2">
+      <c r="R165" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S165" s="9">
+      <c r="S165" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T165" s="1">
+      <c r="T165" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U165" s="7">
+      <c r="U165" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V165" s="7">
@@ -13731,37 +13734,37 @@
       <c r="J166" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="7">
+      <c r="K166" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L166" s="1">
+      <c r="L166" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M166" s="1">
+      <c r="M166" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N166" s="1">
+      <c r="N166" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O166" s="1">
+      <c r="O166" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P166" s="7">
+      <c r="P166" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q166" s="2">
+      <c r="Q166" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R166" s="2">
+      <c r="R166" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S166" s="9">
+      <c r="S166" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T166" s="1">
+      <c r="T166" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U166" s="7">
+      <c r="U166" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V166" s="7">
@@ -13832,37 +13835,37 @@
       <c r="J167" t="s">
         <v>11</v>
       </c>
-      <c r="K167" s="7">
+      <c r="K167" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L167" s="1">
+      <c r="L167" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M167" s="1">
+      <c r="M167" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N167" s="1">
+      <c r="N167" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O167" s="1">
+      <c r="O167" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P167" s="7">
+      <c r="P167" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q167" s="2">
+      <c r="Q167" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R167" s="2">
+      <c r="R167" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S167" s="9">
+      <c r="S167" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T167" s="1">
+      <c r="T167" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U167" s="7">
+      <c r="U167" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V167" s="7">
@@ -13933,37 +13936,37 @@
       <c r="J168" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="7">
+      <c r="K168" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L168" s="1">
+      <c r="L168" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M168" s="1">
+      <c r="M168" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N168" s="1">
+      <c r="N168" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O168" s="1">
+      <c r="O168" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P168" s="7">
+      <c r="P168" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q168" s="2">
+      <c r="Q168" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R168" s="2">
+      <c r="R168" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S168" s="9">
+      <c r="S168" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T168" s="1">
+      <c r="T168" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U168" s="7">
+      <c r="U168" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V168" s="7">
@@ -14037,37 +14040,37 @@
       <c r="J169" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="7">
+      <c r="K169" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L169" s="1">
+      <c r="L169" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M169" s="1">
+      <c r="M169" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N169" s="1">
+      <c r="N169" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O169" s="1">
+      <c r="O169" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P169" s="7">
+      <c r="P169" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q169" s="2">
+      <c r="Q169" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R169" s="2">
+      <c r="R169" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S169" s="9">
+      <c r="S169" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T169" s="1">
+      <c r="T169" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U169" s="7">
+      <c r="U169" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V169" s="7">
@@ -14138,37 +14141,37 @@
       <c r="J170" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="7">
+      <c r="K170" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L170" s="1">
+      <c r="L170" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M170" s="1">
+      <c r="M170" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N170" s="1">
+      <c r="N170" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O170" s="1">
+      <c r="O170" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P170" s="7">
+      <c r="P170" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q170" s="2">
+      <c r="Q170" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R170" s="2">
+      <c r="R170" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S170" s="9">
+      <c r="S170" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T170" s="1">
+      <c r="T170" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U170" s="7">
+      <c r="U170" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V170" s="7">
@@ -14239,37 +14242,37 @@
       <c r="J171" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="7">
+      <c r="K171" s="12">
         <v>8.8730432668844901E-6</v>
       </c>
-      <c r="L171" s="1">
+      <c r="L171" s="13">
         <v>3.22683731766468E-5</v>
       </c>
-      <c r="M171" s="1">
+      <c r="M171" s="13">
         <v>5.53439940484322E-5</v>
       </c>
-      <c r="N171" s="1">
+      <c r="N171" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="O171" s="1">
+      <c r="O171" s="13">
         <v>1.2431130873726901E-4</v>
       </c>
-      <c r="P171" s="7">
+      <c r="P171" s="12">
         <v>2.1320827961315701E-4</v>
       </c>
-      <c r="Q171" s="2">
+      <c r="Q171" s="13">
         <v>1.3774104683195499E-3</v>
       </c>
-      <c r="R171" s="2">
+      <c r="R171" s="13">
         <v>1.83654729109274E-3</v>
       </c>
-      <c r="S171" s="9">
+      <c r="S171" s="12">
         <v>6.8870523415977903E-3</v>
       </c>
-      <c r="T171" s="1">
+      <c r="T171" s="13">
         <v>7.2479837593600498E-5</v>
       </c>
-      <c r="U171" s="7">
+      <c r="U171" s="12">
         <v>7.2479837593600498E-5</v>
       </c>
       <c r="V171" s="7">
@@ -16562,19 +16565,19 @@
       <c r="K206" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L206" s="1">
+      <c r="L206" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M206" s="1">
+      <c r="M206" s="2">
         <v>5000000</v>
       </c>
-      <c r="N206" s="1">
+      <c r="N206" s="2">
         <v>5000000</v>
       </c>
-      <c r="O206" s="1">
+      <c r="O206" s="2">
         <v>5000000</v>
       </c>
-      <c r="P206" s="7">
+      <c r="P206" s="9">
         <v>5000000</v>
       </c>
       <c r="Q206" s="2">
@@ -16586,28 +16589,28 @@
       <c r="S206" s="9">
         <v>100</v>
       </c>
-      <c r="T206" s="1">
+      <c r="T206" s="2">
         <v>40</v>
       </c>
-      <c r="U206" s="7">
+      <c r="U206" s="9">
         <v>40</v>
       </c>
-      <c r="V206" s="7">
+      <c r="V206" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W206" s="1">
+      <c r="W206" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X206" s="1">
+      <c r="X206" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y206" s="1">
+      <c r="Y206" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z206" s="1">
+      <c r="Z206" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA206" s="7">
+      <c r="AA206" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB206" s="1">
@@ -16663,19 +16666,19 @@
       <c r="K207" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L207" s="1">
+      <c r="L207" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M207" s="1">
+      <c r="M207" s="2">
         <v>5000000</v>
       </c>
-      <c r="N207" s="1">
+      <c r="N207" s="2">
         <v>5000000</v>
       </c>
-      <c r="O207" s="1">
+      <c r="O207" s="2">
         <v>5000000</v>
       </c>
-      <c r="P207" s="7">
+      <c r="P207" s="9">
         <v>5000000</v>
       </c>
       <c r="Q207" s="2">
@@ -16687,28 +16690,28 @@
       <c r="S207" s="9">
         <v>100</v>
       </c>
-      <c r="T207" s="1">
+      <c r="T207" s="2">
         <v>40</v>
       </c>
-      <c r="U207" s="7">
+      <c r="U207" s="9">
         <v>40</v>
       </c>
-      <c r="V207" s="7">
+      <c r="V207" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W207" s="1">
+      <c r="W207" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X207" s="1">
+      <c r="X207" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y207" s="1">
+      <c r="Y207" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z207" s="1">
+      <c r="Z207" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA207" s="7">
+      <c r="AA207" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB207" s="1">
@@ -16764,19 +16767,19 @@
       <c r="K208" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L208" s="1">
+      <c r="L208" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M208" s="1">
+      <c r="M208" s="2">
         <v>5000000</v>
       </c>
-      <c r="N208" s="1">
+      <c r="N208" s="2">
         <v>5000000</v>
       </c>
-      <c r="O208" s="1">
+      <c r="O208" s="2">
         <v>5000000</v>
       </c>
-      <c r="P208" s="7">
+      <c r="P208" s="9">
         <v>5000000</v>
       </c>
       <c r="Q208" s="2">
@@ -16788,28 +16791,28 @@
       <c r="S208" s="9">
         <v>100</v>
       </c>
-      <c r="T208" s="1">
+      <c r="T208" s="2">
         <v>40</v>
       </c>
-      <c r="U208" s="7">
+      <c r="U208" s="9">
         <v>40</v>
       </c>
-      <c r="V208" s="7">
+      <c r="V208" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W208" s="1">
+      <c r="W208" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X208" s="1">
+      <c r="X208" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y208" s="1">
+      <c r="Y208" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z208" s="1">
+      <c r="Z208" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA208" s="7">
+      <c r="AA208" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB208" s="1">
@@ -16865,19 +16868,19 @@
       <c r="K209" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L209" s="1">
+      <c r="L209" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M209" s="1">
+      <c r="M209" s="2">
         <v>5000000</v>
       </c>
-      <c r="N209" s="1">
+      <c r="N209" s="2">
         <v>5000000</v>
       </c>
-      <c r="O209" s="1">
+      <c r="O209" s="2">
         <v>5000000</v>
       </c>
-      <c r="P209" s="7">
+      <c r="P209" s="9">
         <v>5000000</v>
       </c>
       <c r="Q209" s="2">
@@ -16889,28 +16892,28 @@
       <c r="S209" s="9">
         <v>100</v>
       </c>
-      <c r="T209" s="1">
+      <c r="T209" s="2">
         <v>40</v>
       </c>
-      <c r="U209" s="7">
+      <c r="U209" s="9">
         <v>40</v>
       </c>
-      <c r="V209" s="7">
+      <c r="V209" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W209" s="1">
+      <c r="W209" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X209" s="1">
+      <c r="X209" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y209" s="1">
+      <c r="Y209" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z209" s="1">
+      <c r="Z209" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA209" s="7">
+      <c r="AA209" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB209" s="1">
@@ -16966,19 +16969,19 @@
       <c r="K210" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L210" s="1">
+      <c r="L210" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M210" s="1">
+      <c r="M210" s="2">
         <v>5000000</v>
       </c>
-      <c r="N210" s="1">
+      <c r="N210" s="2">
         <v>5000000</v>
       </c>
-      <c r="O210" s="1">
+      <c r="O210" s="2">
         <v>5000000</v>
       </c>
-      <c r="P210" s="7">
+      <c r="P210" s="9">
         <v>5000000</v>
       </c>
       <c r="Q210" s="2">
@@ -16990,28 +16993,28 @@
       <c r="S210" s="9">
         <v>100</v>
       </c>
-      <c r="T210" s="1">
+      <c r="T210" s="2">
         <v>40</v>
       </c>
-      <c r="U210" s="7">
+      <c r="U210" s="9">
         <v>40</v>
       </c>
-      <c r="V210" s="7">
+      <c r="V210" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W210" s="1">
+      <c r="W210" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X210" s="1">
+      <c r="X210" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y210" s="1">
+      <c r="Y210" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z210" s="1">
+      <c r="Z210" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA210" s="7">
+      <c r="AA210" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB210" s="1">
@@ -17067,19 +17070,19 @@
       <c r="K211" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L211" s="1">
+      <c r="L211" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M211" s="1">
+      <c r="M211" s="2">
         <v>5000000</v>
       </c>
-      <c r="N211" s="1">
+      <c r="N211" s="2">
         <v>5000000</v>
       </c>
-      <c r="O211" s="1">
+      <c r="O211" s="2">
         <v>5000000</v>
       </c>
-      <c r="P211" s="7">
+      <c r="P211" s="9">
         <v>5000000</v>
       </c>
       <c r="Q211" s="2">
@@ -17091,28 +17094,28 @@
       <c r="S211" s="9">
         <v>100</v>
       </c>
-      <c r="T211" s="1">
+      <c r="T211" s="2">
         <v>40</v>
       </c>
-      <c r="U211" s="7">
+      <c r="U211" s="9">
         <v>40</v>
       </c>
-      <c r="V211" s="7">
+      <c r="V211" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W211" s="1">
+      <c r="W211" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X211" s="1">
+      <c r="X211" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y211" s="1">
+      <c r="Y211" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z211" s="1">
+      <c r="Z211" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA211" s="7">
+      <c r="AA211" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB211" s="1">
@@ -17168,19 +17171,19 @@
       <c r="K212" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L212" s="1">
+      <c r="L212" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M212" s="1">
+      <c r="M212" s="2">
         <v>5000000</v>
       </c>
-      <c r="N212" s="1">
+      <c r="N212" s="2">
         <v>5000000</v>
       </c>
-      <c r="O212" s="1">
+      <c r="O212" s="2">
         <v>5000000</v>
       </c>
-      <c r="P212" s="7">
+      <c r="P212" s="9">
         <v>5000000</v>
       </c>
       <c r="Q212" s="2">
@@ -17192,28 +17195,28 @@
       <c r="S212" s="9">
         <v>100</v>
       </c>
-      <c r="T212" s="1">
+      <c r="T212" s="2">
         <v>40</v>
       </c>
-      <c r="U212" s="7">
+      <c r="U212" s="9">
         <v>40</v>
       </c>
-      <c r="V212" s="7">
+      <c r="V212" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W212" s="1">
+      <c r="W212" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X212" s="1">
+      <c r="X212" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y212" s="1">
+      <c r="Y212" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z212" s="1">
+      <c r="Z212" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA212" s="7">
+      <c r="AA212" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB212" s="1">
@@ -17269,19 +17272,19 @@
       <c r="K213" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L213" s="1">
+      <c r="L213" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M213" s="1">
+      <c r="M213" s="2">
         <v>5000000</v>
       </c>
-      <c r="N213" s="1">
+      <c r="N213" s="2">
         <v>5000000</v>
       </c>
-      <c r="O213" s="1">
+      <c r="O213" s="2">
         <v>5000000</v>
       </c>
-      <c r="P213" s="7">
+      <c r="P213" s="9">
         <v>5000000</v>
       </c>
       <c r="Q213" s="2">
@@ -17293,28 +17296,28 @@
       <c r="S213" s="9">
         <v>100</v>
       </c>
-      <c r="T213" s="1">
+      <c r="T213" s="2">
         <v>40</v>
       </c>
-      <c r="U213" s="7">
+      <c r="U213" s="9">
         <v>40</v>
       </c>
-      <c r="V213" s="7">
+      <c r="V213" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W213" s="1">
+      <c r="W213" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X213" s="1">
+      <c r="X213" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y213" s="1">
+      <c r="Y213" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z213" s="1">
+      <c r="Z213" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA213" s="7">
+      <c r="AA213" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB213" s="1">
@@ -17370,19 +17373,19 @@
       <c r="K214" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L214" s="1">
+      <c r="L214" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M214" s="1">
+      <c r="M214" s="2">
         <v>5000000</v>
       </c>
-      <c r="N214" s="1">
+      <c r="N214" s="2">
         <v>5000000</v>
       </c>
-      <c r="O214" s="1">
+      <c r="O214" s="2">
         <v>5000000</v>
       </c>
-      <c r="P214" s="7">
+      <c r="P214" s="9">
         <v>5000000</v>
       </c>
       <c r="Q214" s="2">
@@ -17394,28 +17397,28 @@
       <c r="S214" s="9">
         <v>100</v>
       </c>
-      <c r="T214" s="1">
+      <c r="T214" s="2">
         <v>40</v>
       </c>
-      <c r="U214" s="7">
+      <c r="U214" s="9">
         <v>40</v>
       </c>
-      <c r="V214" s="7">
+      <c r="V214" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W214" s="1">
+      <c r="W214" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X214" s="1">
+      <c r="X214" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y214" s="1">
+      <c r="Y214" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z214" s="1">
+      <c r="Z214" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA214" s="7">
+      <c r="AA214" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB214" s="1">
@@ -17471,19 +17474,19 @@
       <c r="K215" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L215" s="1">
+      <c r="L215" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M215" s="1">
+      <c r="M215" s="2">
         <v>5000000</v>
       </c>
-      <c r="N215" s="1">
+      <c r="N215" s="2">
         <v>5000000</v>
       </c>
-      <c r="O215" s="1">
+      <c r="O215" s="2">
         <v>5000000</v>
       </c>
-      <c r="P215" s="7">
+      <c r="P215" s="9">
         <v>5000000</v>
       </c>
       <c r="Q215" s="2">
@@ -17495,28 +17498,28 @@
       <c r="S215" s="9">
         <v>100</v>
       </c>
-      <c r="T215" s="1">
+      <c r="T215" s="2">
         <v>40</v>
       </c>
-      <c r="U215" s="7">
+      <c r="U215" s="9">
         <v>40</v>
       </c>
-      <c r="V215" s="7">
+      <c r="V215" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W215" s="1">
+      <c r="W215" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X215" s="1">
+      <c r="X215" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y215" s="1">
+      <c r="Y215" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z215" s="1">
+      <c r="Z215" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA215" s="7">
+      <c r="AA215" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB215" s="1">
@@ -17572,19 +17575,19 @@
       <c r="K216" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L216" s="1">
+      <c r="L216" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M216" s="1">
+      <c r="M216" s="2">
         <v>5000000</v>
       </c>
-      <c r="N216" s="1">
+      <c r="N216" s="2">
         <v>5000000</v>
       </c>
-      <c r="O216" s="1">
+      <c r="O216" s="2">
         <v>5000000</v>
       </c>
-      <c r="P216" s="7">
+      <c r="P216" s="9">
         <v>5000000</v>
       </c>
       <c r="Q216" s="2">
@@ -17596,28 +17599,28 @@
       <c r="S216" s="9">
         <v>100</v>
       </c>
-      <c r="T216" s="1">
+      <c r="T216" s="2">
         <v>40</v>
       </c>
-      <c r="U216" s="7">
+      <c r="U216" s="9">
         <v>40</v>
       </c>
-      <c r="V216" s="7">
+      <c r="V216" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W216" s="1">
+      <c r="W216" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X216" s="1">
+      <c r="X216" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y216" s="1">
+      <c r="Y216" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z216" s="1">
+      <c r="Z216" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA216" s="7">
+      <c r="AA216" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB216" s="1">
@@ -17673,19 +17676,19 @@
       <c r="K217" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L217" s="1">
+      <c r="L217" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M217" s="1">
+      <c r="M217" s="2">
         <v>5000000</v>
       </c>
-      <c r="N217" s="1">
+      <c r="N217" s="2">
         <v>5000000</v>
       </c>
-      <c r="O217" s="1">
+      <c r="O217" s="2">
         <v>5000000</v>
       </c>
-      <c r="P217" s="7">
+      <c r="P217" s="9">
         <v>5000000</v>
       </c>
       <c r="Q217" s="2">
@@ -17697,28 +17700,28 @@
       <c r="S217" s="9">
         <v>100</v>
       </c>
-      <c r="T217" s="1">
+      <c r="T217" s="2">
         <v>40</v>
       </c>
-      <c r="U217" s="7">
+      <c r="U217" s="9">
         <v>40</v>
       </c>
-      <c r="V217" s="7">
+      <c r="V217" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W217" s="1">
+      <c r="W217" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X217" s="1">
+      <c r="X217" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y217" s="1">
+      <c r="Y217" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z217" s="1">
+      <c r="Z217" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA217" s="7">
+      <c r="AA217" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB217" s="1">
@@ -17774,19 +17777,19 @@
       <c r="K218" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L218" s="1">
+      <c r="L218" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M218" s="1">
+      <c r="M218" s="2">
         <v>5000000</v>
       </c>
-      <c r="N218" s="1">
+      <c r="N218" s="2">
         <v>5000000</v>
       </c>
-      <c r="O218" s="1">
+      <c r="O218" s="2">
         <v>5000000</v>
       </c>
-      <c r="P218" s="7">
+      <c r="P218" s="9">
         <v>5000000</v>
       </c>
       <c r="Q218" s="2">
@@ -17798,28 +17801,28 @@
       <c r="S218" s="9">
         <v>100</v>
       </c>
-      <c r="T218" s="1">
+      <c r="T218" s="2">
         <v>40</v>
       </c>
-      <c r="U218" s="7">
+      <c r="U218" s="9">
         <v>40</v>
       </c>
-      <c r="V218" s="7">
+      <c r="V218" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W218" s="1">
+      <c r="W218" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X218" s="1">
+      <c r="X218" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y218" s="1">
+      <c r="Y218" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z218" s="1">
+      <c r="Z218" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA218" s="7">
+      <c r="AA218" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB218" s="1">
@@ -17875,19 +17878,19 @@
       <c r="K219" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L219" s="1">
+      <c r="L219" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M219" s="1">
+      <c r="M219" s="2">
         <v>5000000</v>
       </c>
-      <c r="N219" s="1">
+      <c r="N219" s="2">
         <v>5000000</v>
       </c>
-      <c r="O219" s="1">
+      <c r="O219" s="2">
         <v>5000000</v>
       </c>
-      <c r="P219" s="7">
+      <c r="P219" s="9">
         <v>5000000</v>
       </c>
       <c r="Q219" s="2">
@@ -17899,28 +17902,28 @@
       <c r="S219" s="9">
         <v>100</v>
       </c>
-      <c r="T219" s="1">
+      <c r="T219" s="2">
         <v>40</v>
       </c>
-      <c r="U219" s="7">
+      <c r="U219" s="9">
         <v>40</v>
       </c>
-      <c r="V219" s="7">
+      <c r="V219" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W219" s="1">
+      <c r="W219" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X219" s="1">
+      <c r="X219" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y219" s="1">
+      <c r="Y219" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z219" s="1">
+      <c r="Z219" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA219" s="7">
+      <c r="AA219" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB219" s="1">
@@ -17979,19 +17982,19 @@
       <c r="K220" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L220" s="1">
+      <c r="L220" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M220" s="1">
+      <c r="M220" s="2">
         <v>5000000</v>
       </c>
-      <c r="N220" s="1">
+      <c r="N220" s="2">
         <v>5000000</v>
       </c>
-      <c r="O220" s="1">
+      <c r="O220" s="2">
         <v>5000000</v>
       </c>
-      <c r="P220" s="7">
+      <c r="P220" s="9">
         <v>5000000</v>
       </c>
       <c r="Q220" s="2">
@@ -18003,28 +18006,28 @@
       <c r="S220" s="9">
         <v>100</v>
       </c>
-      <c r="T220" s="1">
+      <c r="T220" s="2">
         <v>40</v>
       </c>
-      <c r="U220" s="7">
+      <c r="U220" s="9">
         <v>40</v>
       </c>
-      <c r="V220" s="7">
+      <c r="V220" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W220" s="1">
+      <c r="W220" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X220" s="1">
+      <c r="X220" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y220" s="1">
+      <c r="Y220" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z220" s="1">
+      <c r="Z220" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA220" s="7">
+      <c r="AA220" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB220" s="1">
@@ -18080,19 +18083,19 @@
       <c r="K221" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L221" s="1">
+      <c r="L221" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M221" s="1">
+      <c r="M221" s="2">
         <v>5000000</v>
       </c>
-      <c r="N221" s="1">
+      <c r="N221" s="2">
         <v>5000000</v>
       </c>
-      <c r="O221" s="1">
+      <c r="O221" s="2">
         <v>5000000</v>
       </c>
-      <c r="P221" s="7">
+      <c r="P221" s="9">
         <v>5000000</v>
       </c>
       <c r="Q221" s="2">
@@ -18104,28 +18107,28 @@
       <c r="S221" s="9">
         <v>100</v>
       </c>
-      <c r="T221" s="1">
+      <c r="T221" s="2">
         <v>40</v>
       </c>
-      <c r="U221" s="7">
+      <c r="U221" s="9">
         <v>40</v>
       </c>
-      <c r="V221" s="7">
+      <c r="V221" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W221" s="1">
+      <c r="W221" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X221" s="1">
+      <c r="X221" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y221" s="1">
+      <c r="Y221" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z221" s="1">
+      <c r="Z221" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA221" s="7">
+      <c r="AA221" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB221" s="1">
@@ -18181,19 +18184,19 @@
       <c r="K222" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L222" s="1">
+      <c r="L222" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M222" s="1">
+      <c r="M222" s="2">
         <v>5000000</v>
       </c>
-      <c r="N222" s="1">
+      <c r="N222" s="2">
         <v>5000000</v>
       </c>
-      <c r="O222" s="1">
+      <c r="O222" s="2">
         <v>5000000</v>
       </c>
-      <c r="P222" s="7">
+      <c r="P222" s="9">
         <v>5000000</v>
       </c>
       <c r="Q222" s="2">
@@ -18205,28 +18208,28 @@
       <c r="S222" s="9">
         <v>100</v>
       </c>
-      <c r="T222" s="1">
+      <c r="T222" s="2">
         <v>40</v>
       </c>
-      <c r="U222" s="7">
+      <c r="U222" s="9">
         <v>40</v>
       </c>
-      <c r="V222" s="7">
+      <c r="V222" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W222" s="1">
+      <c r="W222" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X222" s="1">
+      <c r="X222" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y222" s="1">
+      <c r="Y222" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z222" s="1">
+      <c r="Z222" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA222" s="7">
+      <c r="AA222" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB222" s="1">
@@ -18282,19 +18285,19 @@
       <c r="K223" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L223" s="1">
+      <c r="L223" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M223" s="1">
+      <c r="M223" s="2">
         <v>5000000</v>
       </c>
-      <c r="N223" s="1">
+      <c r="N223" s="2">
         <v>5000000</v>
       </c>
-      <c r="O223" s="1">
+      <c r="O223" s="2">
         <v>5000000</v>
       </c>
-      <c r="P223" s="7">
+      <c r="P223" s="9">
         <v>5000000</v>
       </c>
       <c r="Q223" s="2">
@@ -18306,28 +18309,28 @@
       <c r="S223" s="9">
         <v>100</v>
       </c>
-      <c r="T223" s="1">
+      <c r="T223" s="2">
         <v>40</v>
       </c>
-      <c r="U223" s="7">
+      <c r="U223" s="9">
         <v>40</v>
       </c>
-      <c r="V223" s="7">
+      <c r="V223" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W223" s="1">
+      <c r="W223" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X223" s="1">
+      <c r="X223" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y223" s="1">
+      <c r="Y223" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z223" s="1">
+      <c r="Z223" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA223" s="7">
+      <c r="AA223" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB223" s="1">
@@ -18383,19 +18386,19 @@
       <c r="K224" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L224" s="1">
+      <c r="L224" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M224" s="1">
+      <c r="M224" s="2">
         <v>5000000</v>
       </c>
-      <c r="N224" s="1">
+      <c r="N224" s="2">
         <v>5000000</v>
       </c>
-      <c r="O224" s="1">
+      <c r="O224" s="2">
         <v>5000000</v>
       </c>
-      <c r="P224" s="7">
+      <c r="P224" s="9">
         <v>5000000</v>
       </c>
       <c r="Q224" s="2">
@@ -18407,28 +18410,28 @@
       <c r="S224" s="9">
         <v>100</v>
       </c>
-      <c r="T224" s="1">
+      <c r="T224" s="2">
         <v>40</v>
       </c>
-      <c r="U224" s="7">
+      <c r="U224" s="9">
         <v>40</v>
       </c>
-      <c r="V224" s="7">
+      <c r="V224" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W224" s="1">
+      <c r="W224" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X224" s="1">
+      <c r="X224" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y224" s="1">
+      <c r="Y224" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z224" s="1">
+      <c r="Z224" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA224" s="7">
+      <c r="AA224" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB224" s="1">
@@ -18484,19 +18487,19 @@
       <c r="K225" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L225" s="1">
+      <c r="L225" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M225" s="1">
+      <c r="M225" s="2">
         <v>5000000</v>
       </c>
-      <c r="N225" s="1">
+      <c r="N225" s="2">
         <v>5000000</v>
       </c>
-      <c r="O225" s="1">
+      <c r="O225" s="2">
         <v>5000000</v>
       </c>
-      <c r="P225" s="7">
+      <c r="P225" s="9">
         <v>5000000</v>
       </c>
       <c r="Q225" s="2">
@@ -18508,28 +18511,28 @@
       <c r="S225" s="9">
         <v>100</v>
       </c>
-      <c r="T225" s="1">
+      <c r="T225" s="2">
         <v>40</v>
       </c>
-      <c r="U225" s="7">
+      <c r="U225" s="9">
         <v>40</v>
       </c>
-      <c r="V225" s="7">
+      <c r="V225" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W225" s="1">
+      <c r="W225" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X225" s="1">
+      <c r="X225" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y225" s="1">
+      <c r="Y225" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z225" s="1">
+      <c r="Z225" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA225" s="7">
+      <c r="AA225" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB225" s="1">
@@ -18585,19 +18588,19 @@
       <c r="K226" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L226" s="1">
+      <c r="L226" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M226" s="1">
+      <c r="M226" s="2">
         <v>5000000</v>
       </c>
-      <c r="N226" s="1">
+      <c r="N226" s="2">
         <v>5000000</v>
       </c>
-      <c r="O226" s="1">
+      <c r="O226" s="2">
         <v>5000000</v>
       </c>
-      <c r="P226" s="7">
+      <c r="P226" s="9">
         <v>5000000</v>
       </c>
       <c r="Q226" s="2">
@@ -18609,28 +18612,28 @@
       <c r="S226" s="9">
         <v>100</v>
       </c>
-      <c r="T226" s="1">
+      <c r="T226" s="2">
         <v>40</v>
       </c>
-      <c r="U226" s="7">
+      <c r="U226" s="9">
         <v>40</v>
       </c>
-      <c r="V226" s="7">
+      <c r="V226" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W226" s="1">
+      <c r="W226" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X226" s="1">
+      <c r="X226" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y226" s="1">
+      <c r="Y226" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z226" s="1">
+      <c r="Z226" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA226" s="7">
+      <c r="AA226" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB226" s="1">
@@ -18686,19 +18689,19 @@
       <c r="K227" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L227" s="1">
+      <c r="L227" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M227" s="1">
+      <c r="M227" s="2">
         <v>5000000</v>
       </c>
-      <c r="N227" s="1">
+      <c r="N227" s="2">
         <v>5000000</v>
       </c>
-      <c r="O227" s="1">
+      <c r="O227" s="2">
         <v>5000000</v>
       </c>
-      <c r="P227" s="7">
+      <c r="P227" s="9">
         <v>5000000</v>
       </c>
       <c r="Q227" s="2">
@@ -18710,28 +18713,28 @@
       <c r="S227" s="9">
         <v>100</v>
       </c>
-      <c r="T227" s="1">
+      <c r="T227" s="2">
         <v>40</v>
       </c>
-      <c r="U227" s="7">
+      <c r="U227" s="9">
         <v>40</v>
       </c>
-      <c r="V227" s="7">
+      <c r="V227" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W227" s="1">
+      <c r="W227" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X227" s="1">
+      <c r="X227" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y227" s="1">
+      <c r="Y227" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z227" s="1">
+      <c r="Z227" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA227" s="7">
+      <c r="AA227" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB227" s="1">
@@ -18787,19 +18790,19 @@
       <c r="K228" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L228" s="1">
+      <c r="L228" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M228" s="1">
+      <c r="M228" s="2">
         <v>5000000</v>
       </c>
-      <c r="N228" s="1">
+      <c r="N228" s="2">
         <v>5000000</v>
       </c>
-      <c r="O228" s="1">
+      <c r="O228" s="2">
         <v>5000000</v>
       </c>
-      <c r="P228" s="7">
+      <c r="P228" s="9">
         <v>5000000</v>
       </c>
       <c r="Q228" s="2">
@@ -18811,28 +18814,28 @@
       <c r="S228" s="9">
         <v>100</v>
       </c>
-      <c r="T228" s="1">
+      <c r="T228" s="2">
         <v>40</v>
       </c>
-      <c r="U228" s="7">
+      <c r="U228" s="9">
         <v>40</v>
       </c>
-      <c r="V228" s="7">
+      <c r="V228" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W228" s="1">
+      <c r="W228" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X228" s="1">
+      <c r="X228" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y228" s="1">
+      <c r="Y228" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z228" s="1">
+      <c r="Z228" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA228" s="7">
+      <c r="AA228" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB228" s="1">
@@ -18888,19 +18891,19 @@
       <c r="K229" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L229" s="1">
+      <c r="L229" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M229" s="1">
+      <c r="M229" s="2">
         <v>5000000</v>
       </c>
-      <c r="N229" s="1">
+      <c r="N229" s="2">
         <v>5000000</v>
       </c>
-      <c r="O229" s="1">
+      <c r="O229" s="2">
         <v>5000000</v>
       </c>
-      <c r="P229" s="7">
+      <c r="P229" s="9">
         <v>5000000</v>
       </c>
       <c r="Q229" s="2">
@@ -18912,28 +18915,28 @@
       <c r="S229" s="9">
         <v>100</v>
       </c>
-      <c r="T229" s="1">
+      <c r="T229" s="2">
         <v>40</v>
       </c>
-      <c r="U229" s="7">
+      <c r="U229" s="9">
         <v>40</v>
       </c>
-      <c r="V229" s="7">
+      <c r="V229" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W229" s="1">
+      <c r="W229" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X229" s="1">
+      <c r="X229" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y229" s="1">
+      <c r="Y229" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z229" s="1">
+      <c r="Z229" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA229" s="7">
+      <c r="AA229" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB229" s="1">
@@ -18989,19 +18992,19 @@
       <c r="K230" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L230" s="1">
+      <c r="L230" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M230" s="1">
+      <c r="M230" s="2">
         <v>5000000</v>
       </c>
-      <c r="N230" s="1">
+      <c r="N230" s="2">
         <v>5000000</v>
       </c>
-      <c r="O230" s="1">
+      <c r="O230" s="2">
         <v>5000000</v>
       </c>
-      <c r="P230" s="7">
+      <c r="P230" s="9">
         <v>5000000</v>
       </c>
       <c r="Q230" s="2">
@@ -19013,28 +19016,28 @@
       <c r="S230" s="9">
         <v>100</v>
       </c>
-      <c r="T230" s="1">
+      <c r="T230" s="2">
         <v>40</v>
       </c>
-      <c r="U230" s="7">
+      <c r="U230" s="9">
         <v>40</v>
       </c>
-      <c r="V230" s="7">
+      <c r="V230" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W230" s="1">
+      <c r="W230" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X230" s="1">
+      <c r="X230" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y230" s="1">
+      <c r="Y230" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z230" s="1">
+      <c r="Z230" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA230" s="7">
+      <c r="AA230" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB230" s="1">
@@ -19090,19 +19093,19 @@
       <c r="K231" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L231" s="1">
+      <c r="L231" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M231" s="1">
+      <c r="M231" s="2">
         <v>5000000</v>
       </c>
-      <c r="N231" s="1">
+      <c r="N231" s="2">
         <v>5000000</v>
       </c>
-      <c r="O231" s="1">
+      <c r="O231" s="2">
         <v>5000000</v>
       </c>
-      <c r="P231" s="7">
+      <c r="P231" s="9">
         <v>5000000</v>
       </c>
       <c r="Q231" s="2">
@@ -19114,28 +19117,28 @@
       <c r="S231" s="9">
         <v>100</v>
       </c>
-      <c r="T231" s="1">
+      <c r="T231" s="2">
         <v>40</v>
       </c>
-      <c r="U231" s="7">
+      <c r="U231" s="9">
         <v>40</v>
       </c>
-      <c r="V231" s="7">
+      <c r="V231" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W231" s="1">
+      <c r="W231" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X231" s="1">
+      <c r="X231" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y231" s="1">
+      <c r="Y231" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z231" s="1">
+      <c r="Z231" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA231" s="7">
+      <c r="AA231" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB231" s="1">
@@ -19191,19 +19194,19 @@
       <c r="K232" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L232" s="1">
+      <c r="L232" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M232" s="1">
+      <c r="M232" s="2">
         <v>5000000</v>
       </c>
-      <c r="N232" s="1">
+      <c r="N232" s="2">
         <v>5000000</v>
       </c>
-      <c r="O232" s="1">
+      <c r="O232" s="2">
         <v>5000000</v>
       </c>
-      <c r="P232" s="7">
+      <c r="P232" s="9">
         <v>5000000</v>
       </c>
       <c r="Q232" s="2">
@@ -19215,28 +19218,28 @@
       <c r="S232" s="9">
         <v>100</v>
       </c>
-      <c r="T232" s="1">
+      <c r="T232" s="2">
         <v>40</v>
       </c>
-      <c r="U232" s="7">
+      <c r="U232" s="9">
         <v>40</v>
       </c>
-      <c r="V232" s="7">
+      <c r="V232" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W232" s="1">
+      <c r="W232" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X232" s="1">
+      <c r="X232" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y232" s="1">
+      <c r="Y232" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z232" s="1">
+      <c r="Z232" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA232" s="7">
+      <c r="AA232" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB232" s="1">
@@ -19292,19 +19295,19 @@
       <c r="K233" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L233" s="1">
+      <c r="L233" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M233" s="1">
+      <c r="M233" s="2">
         <v>5000000</v>
       </c>
-      <c r="N233" s="1">
+      <c r="N233" s="2">
         <v>5000000</v>
       </c>
-      <c r="O233" s="1">
+      <c r="O233" s="2">
         <v>5000000</v>
       </c>
-      <c r="P233" s="7">
+      <c r="P233" s="9">
         <v>5000000</v>
       </c>
       <c r="Q233" s="2">
@@ -19316,28 +19319,28 @@
       <c r="S233" s="9">
         <v>100</v>
       </c>
-      <c r="T233" s="1">
+      <c r="T233" s="2">
         <v>40</v>
       </c>
-      <c r="U233" s="7">
+      <c r="U233" s="9">
         <v>40</v>
       </c>
-      <c r="V233" s="7">
+      <c r="V233" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W233" s="1">
+      <c r="W233" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X233" s="1">
+      <c r="X233" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y233" s="1">
+      <c r="Y233" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z233" s="1">
+      <c r="Z233" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA233" s="7">
+      <c r="AA233" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB233" s="1">
@@ -19393,19 +19396,19 @@
       <c r="K234" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L234" s="1">
+      <c r="L234" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M234" s="1">
+      <c r="M234" s="2">
         <v>5000000</v>
       </c>
-      <c r="N234" s="1">
+      <c r="N234" s="2">
         <v>5000000</v>
       </c>
-      <c r="O234" s="1">
+      <c r="O234" s="2">
         <v>5000000</v>
       </c>
-      <c r="P234" s="7">
+      <c r="P234" s="9">
         <v>5000000</v>
       </c>
       <c r="Q234" s="2">
@@ -19417,28 +19420,28 @@
       <c r="S234" s="9">
         <v>100</v>
       </c>
-      <c r="T234" s="1">
+      <c r="T234" s="2">
         <v>40</v>
       </c>
-      <c r="U234" s="7">
+      <c r="U234" s="9">
         <v>40</v>
       </c>
-      <c r="V234" s="7">
+      <c r="V234" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W234" s="1">
+      <c r="W234" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X234" s="1">
+      <c r="X234" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y234" s="1">
+      <c r="Y234" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z234" s="1">
+      <c r="Z234" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA234" s="7">
+      <c r="AA234" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB234" s="1">
@@ -19494,19 +19497,19 @@
       <c r="K235" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L235" s="1">
+      <c r="L235" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M235" s="1">
+      <c r="M235" s="2">
         <v>5000000</v>
       </c>
-      <c r="N235" s="1">
+      <c r="N235" s="2">
         <v>5000000</v>
       </c>
-      <c r="O235" s="1">
+      <c r="O235" s="2">
         <v>5000000</v>
       </c>
-      <c r="P235" s="7">
+      <c r="P235" s="9">
         <v>5000000</v>
       </c>
       <c r="Q235" s="2">
@@ -19518,28 +19521,28 @@
       <c r="S235" s="9">
         <v>100</v>
       </c>
-      <c r="T235" s="1">
+      <c r="T235" s="2">
         <v>40</v>
       </c>
-      <c r="U235" s="7">
+      <c r="U235" s="9">
         <v>40</v>
       </c>
-      <c r="V235" s="7">
+      <c r="V235" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W235" s="1">
+      <c r="W235" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X235" s="1">
+      <c r="X235" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y235" s="1">
+      <c r="Y235" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z235" s="1">
+      <c r="Z235" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA235" s="7">
+      <c r="AA235" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB235" s="1">
@@ -19595,19 +19598,19 @@
       <c r="K236" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L236" s="1">
+      <c r="L236" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M236" s="1">
+      <c r="M236" s="2">
         <v>5000000</v>
       </c>
-      <c r="N236" s="1">
+      <c r="N236" s="2">
         <v>5000000</v>
       </c>
-      <c r="O236" s="1">
+      <c r="O236" s="2">
         <v>5000000</v>
       </c>
-      <c r="P236" s="7">
+      <c r="P236" s="9">
         <v>5000000</v>
       </c>
       <c r="Q236" s="2">
@@ -19619,28 +19622,28 @@
       <c r="S236" s="9">
         <v>100</v>
       </c>
-      <c r="T236" s="1">
+      <c r="T236" s="2">
         <v>40</v>
       </c>
-      <c r="U236" s="7">
+      <c r="U236" s="9">
         <v>40</v>
       </c>
-      <c r="V236" s="7">
+      <c r="V236" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W236" s="1">
+      <c r="W236" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X236" s="1">
+      <c r="X236" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y236" s="1">
+      <c r="Y236" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z236" s="1">
+      <c r="Z236" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA236" s="7">
+      <c r="AA236" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB236" s="1">
@@ -19696,19 +19699,19 @@
       <c r="K237" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L237" s="1">
+      <c r="L237" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M237" s="1">
+      <c r="M237" s="2">
         <v>5000000</v>
       </c>
-      <c r="N237" s="1">
+      <c r="N237" s="2">
         <v>5000000</v>
       </c>
-      <c r="O237" s="1">
+      <c r="O237" s="2">
         <v>5000000</v>
       </c>
-      <c r="P237" s="7">
+      <c r="P237" s="9">
         <v>5000000</v>
       </c>
       <c r="Q237" s="2">
@@ -19720,28 +19723,28 @@
       <c r="S237" s="9">
         <v>100</v>
       </c>
-      <c r="T237" s="1">
+      <c r="T237" s="2">
         <v>40</v>
       </c>
-      <c r="U237" s="7">
+      <c r="U237" s="9">
         <v>40</v>
       </c>
-      <c r="V237" s="7">
+      <c r="V237" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W237" s="1">
+      <c r="W237" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X237" s="1">
+      <c r="X237" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y237" s="1">
+      <c r="Y237" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z237" s="1">
+      <c r="Z237" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA237" s="7">
+      <c r="AA237" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB237" s="1">
@@ -19797,19 +19800,19 @@
       <c r="K238" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L238" s="1">
+      <c r="L238" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M238" s="1">
+      <c r="M238" s="2">
         <v>5000000</v>
       </c>
-      <c r="N238" s="1">
+      <c r="N238" s="2">
         <v>5000000</v>
       </c>
-      <c r="O238" s="1">
+      <c r="O238" s="2">
         <v>5000000</v>
       </c>
-      <c r="P238" s="7">
+      <c r="P238" s="9">
         <v>5000000</v>
       </c>
       <c r="Q238" s="2">
@@ -19821,28 +19824,28 @@
       <c r="S238" s="9">
         <v>100</v>
       </c>
-      <c r="T238" s="1">
+      <c r="T238" s="2">
         <v>40</v>
       </c>
-      <c r="U238" s="7">
+      <c r="U238" s="9">
         <v>40</v>
       </c>
-      <c r="V238" s="7">
+      <c r="V238" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W238" s="1">
+      <c r="W238" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X238" s="1">
+      <c r="X238" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y238" s="1">
+      <c r="Y238" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z238" s="1">
+      <c r="Z238" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA238" s="7">
+      <c r="AA238" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB238" s="1">
@@ -19898,19 +19901,19 @@
       <c r="K239" s="7">
         <v>1.4062499999952801E-4</v>
       </c>
-      <c r="L239" s="1">
+      <c r="L239" s="2">
         <v>1129152.4408465701</v>
       </c>
-      <c r="M239" s="1">
+      <c r="M239" s="2">
         <v>5000000</v>
       </c>
-      <c r="N239" s="1">
+      <c r="N239" s="2">
         <v>5000000</v>
       </c>
-      <c r="O239" s="1">
+      <c r="O239" s="2">
         <v>5000000</v>
       </c>
-      <c r="P239" s="7">
+      <c r="P239" s="9">
         <v>5000000</v>
       </c>
       <c r="Q239" s="2">
@@ -19922,28 +19925,28 @@
       <c r="S239" s="9">
         <v>100</v>
       </c>
-      <c r="T239" s="1">
+      <c r="T239" s="2">
         <v>40</v>
       </c>
-      <c r="U239" s="7">
+      <c r="U239" s="9">
         <v>40</v>
       </c>
-      <c r="V239" s="7">
+      <c r="V239" s="9">
         <v>7.0312499999764099E-5</v>
       </c>
-      <c r="W239" s="1">
+      <c r="W239" s="2">
         <v>564576.22042328899</v>
       </c>
-      <c r="X239" s="1">
+      <c r="X239" s="2">
         <v>2381904122.4594202</v>
       </c>
-      <c r="Y239" s="1">
+      <c r="Y239" s="2">
         <v>154712399950.53299</v>
       </c>
-      <c r="Z239" s="1">
+      <c r="Z239" s="2">
         <v>652719845315006</v>
       </c>
-      <c r="AA239" s="7">
+      <c r="AA239" s="9">
         <v>1000000000000000</v>
       </c>
       <c r="AB239" s="1">
@@ -19999,19 +20002,19 @@
       <c r="K240" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L240" s="1">
+      <c r="L240" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M240" s="1">
+      <c r="M240" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N240" s="1">
+      <c r="N240" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O240" s="1">
+      <c r="O240" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P240" s="7">
+      <c r="P240" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q240" s="2">
@@ -20023,28 +20026,28 @@
       <c r="S240" s="9">
         <v>20000</v>
       </c>
-      <c r="T240" s="1">
+      <c r="T240" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U240" s="7">
+      <c r="U240" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V240" s="11">
+      <c r="V240" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W240" s="10">
+      <c r="W240" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X240" s="10">
+      <c r="X240" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y240" s="10">
+      <c r="Y240" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z240" s="10">
+      <c r="Z240" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA240" s="11">
+      <c r="AA240" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB240" s="1">
@@ -20100,19 +20103,19 @@
       <c r="K241" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L241" s="1">
+      <c r="L241" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M241" s="1">
+      <c r="M241" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N241" s="1">
+      <c r="N241" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O241" s="1">
+      <c r="O241" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P241" s="7">
+      <c r="P241" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q241" s="2">
@@ -20124,28 +20127,28 @@
       <c r="S241" s="9">
         <v>20000</v>
       </c>
-      <c r="T241" s="1">
+      <c r="T241" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U241" s="7">
+      <c r="U241" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V241" s="11">
+      <c r="V241" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W241" s="10">
+      <c r="W241" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X241" s="10">
+      <c r="X241" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y241" s="10">
+      <c r="Y241" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z241" s="10">
+      <c r="Z241" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA241" s="11">
+      <c r="AA241" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB241" s="1">
@@ -20201,19 +20204,19 @@
       <c r="K242" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L242" s="1">
+      <c r="L242" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M242" s="1">
+      <c r="M242" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N242" s="1">
+      <c r="N242" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O242" s="1">
+      <c r="O242" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P242" s="7">
+      <c r="P242" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q242" s="2">
@@ -20225,28 +20228,28 @@
       <c r="S242" s="9">
         <v>20000</v>
       </c>
-      <c r="T242" s="1">
+      <c r="T242" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U242" s="7">
+      <c r="U242" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V242" s="11">
+      <c r="V242" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W242" s="10">
+      <c r="W242" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X242" s="10">
+      <c r="X242" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y242" s="10">
+      <c r="Y242" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z242" s="10">
+      <c r="Z242" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA242" s="11">
+      <c r="AA242" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB242" s="1">
@@ -20302,19 +20305,19 @@
       <c r="K243" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L243" s="1">
+      <c r="L243" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M243" s="1">
+      <c r="M243" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N243" s="1">
+      <c r="N243" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O243" s="1">
+      <c r="O243" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P243" s="7">
+      <c r="P243" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q243" s="2">
@@ -20326,28 +20329,28 @@
       <c r="S243" s="9">
         <v>20000</v>
       </c>
-      <c r="T243" s="1">
+      <c r="T243" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U243" s="7">
+      <c r="U243" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V243" s="11">
+      <c r="V243" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W243" s="10">
+      <c r="W243" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X243" s="10">
+      <c r="X243" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y243" s="10">
+      <c r="Y243" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z243" s="10">
+      <c r="Z243" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA243" s="11">
+      <c r="AA243" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB243" s="1">
@@ -20403,19 +20406,19 @@
       <c r="K244" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L244" s="1">
+      <c r="L244" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M244" s="1">
+      <c r="M244" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N244" s="1">
+      <c r="N244" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O244" s="1">
+      <c r="O244" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P244" s="7">
+      <c r="P244" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q244" s="2">
@@ -20427,28 +20430,28 @@
       <c r="S244" s="9">
         <v>20000</v>
       </c>
-      <c r="T244" s="1">
+      <c r="T244" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U244" s="7">
+      <c r="U244" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V244" s="11">
+      <c r="V244" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W244" s="10">
+      <c r="W244" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X244" s="10">
+      <c r="X244" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y244" s="10">
+      <c r="Y244" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z244" s="10">
+      <c r="Z244" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA244" s="11">
+      <c r="AA244" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB244" s="1">
@@ -20504,19 +20507,19 @@
       <c r="K245" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L245" s="1">
+      <c r="L245" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M245" s="1">
+      <c r="M245" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N245" s="1">
+      <c r="N245" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O245" s="1">
+      <c r="O245" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P245" s="7">
+      <c r="P245" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q245" s="2">
@@ -20528,28 +20531,28 @@
       <c r="S245" s="9">
         <v>20000</v>
       </c>
-      <c r="T245" s="1">
+      <c r="T245" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U245" s="7">
+      <c r="U245" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V245" s="11">
+      <c r="V245" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W245" s="10">
+      <c r="W245" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X245" s="10">
+      <c r="X245" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y245" s="10">
+      <c r="Y245" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z245" s="10">
+      <c r="Z245" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA245" s="11">
+      <c r="AA245" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB245" s="1">
@@ -20605,19 +20608,19 @@
       <c r="K246" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L246" s="1">
+      <c r="L246" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M246" s="1">
+      <c r="M246" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N246" s="1">
+      <c r="N246" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O246" s="1">
+      <c r="O246" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P246" s="7">
+      <c r="P246" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q246" s="2">
@@ -20629,28 +20632,28 @@
       <c r="S246" s="9">
         <v>20000</v>
       </c>
-      <c r="T246" s="1">
+      <c r="T246" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U246" s="7">
+      <c r="U246" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V246" s="11">
+      <c r="V246" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W246" s="10">
+      <c r="W246" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X246" s="10">
+      <c r="X246" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y246" s="10">
+      <c r="Y246" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z246" s="10">
+      <c r="Z246" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA246" s="11">
+      <c r="AA246" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB246" s="1">
@@ -20706,19 +20709,19 @@
       <c r="K247" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L247" s="1">
+      <c r="L247" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M247" s="1">
+      <c r="M247" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N247" s="1">
+      <c r="N247" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O247" s="1">
+      <c r="O247" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P247" s="7">
+      <c r="P247" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q247" s="2">
@@ -20730,28 +20733,28 @@
       <c r="S247" s="9">
         <v>20000</v>
       </c>
-      <c r="T247" s="1">
+      <c r="T247" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U247" s="7">
+      <c r="U247" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V247" s="11">
+      <c r="V247" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W247" s="10">
+      <c r="W247" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X247" s="10">
+      <c r="X247" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y247" s="10">
+      <c r="Y247" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z247" s="10">
+      <c r="Z247" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA247" s="11">
+      <c r="AA247" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB247" s="1">
@@ -20807,19 +20810,19 @@
       <c r="K248" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L248" s="1">
+      <c r="L248" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M248" s="1">
+      <c r="M248" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N248" s="1">
+      <c r="N248" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O248" s="1">
+      <c r="O248" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P248" s="7">
+      <c r="P248" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q248" s="2">
@@ -20831,28 +20834,28 @@
       <c r="S248" s="9">
         <v>20000</v>
       </c>
-      <c r="T248" s="1">
+      <c r="T248" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U248" s="7">
+      <c r="U248" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V248" s="11">
+      <c r="V248" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W248" s="10">
+      <c r="W248" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X248" s="10">
+      <c r="X248" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y248" s="10">
+      <c r="Y248" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z248" s="10">
+      <c r="Z248" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA248" s="11">
+      <c r="AA248" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB248" s="1">
@@ -20908,19 +20911,19 @@
       <c r="K249" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L249" s="1">
+      <c r="L249" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M249" s="1">
+      <c r="M249" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N249" s="1">
+      <c r="N249" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O249" s="1">
+      <c r="O249" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P249" s="7">
+      <c r="P249" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q249" s="2">
@@ -20932,28 +20935,28 @@
       <c r="S249" s="9">
         <v>20000</v>
       </c>
-      <c r="T249" s="1">
+      <c r="T249" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U249" s="7">
+      <c r="U249" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V249" s="11">
+      <c r="V249" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W249" s="10">
+      <c r="W249" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X249" s="10">
+      <c r="X249" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y249" s="10">
+      <c r="Y249" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z249" s="10">
+      <c r="Z249" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA249" s="11">
+      <c r="AA249" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB249" s="1">
@@ -21009,19 +21012,19 @@
       <c r="K250" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L250" s="1">
+      <c r="L250" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M250" s="1">
+      <c r="M250" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N250" s="1">
+      <c r="N250" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O250" s="1">
+      <c r="O250" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P250" s="7">
+      <c r="P250" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q250" s="2">
@@ -21033,28 +21036,28 @@
       <c r="S250" s="9">
         <v>20000</v>
       </c>
-      <c r="T250" s="1">
+      <c r="T250" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U250" s="7">
+      <c r="U250" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V250" s="11">
+      <c r="V250" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W250" s="10">
+      <c r="W250" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X250" s="10">
+      <c r="X250" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y250" s="10">
+      <c r="Y250" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z250" s="10">
+      <c r="Z250" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA250" s="11">
+      <c r="AA250" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB250" s="1">
@@ -21110,19 +21113,19 @@
       <c r="K251" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L251" s="1">
+      <c r="L251" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M251" s="1">
+      <c r="M251" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N251" s="1">
+      <c r="N251" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O251" s="1">
+      <c r="O251" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P251" s="7">
+      <c r="P251" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q251" s="2">
@@ -21134,28 +21137,28 @@
       <c r="S251" s="9">
         <v>20000</v>
       </c>
-      <c r="T251" s="1">
+      <c r="T251" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U251" s="7">
+      <c r="U251" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V251" s="11">
+      <c r="V251" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W251" s="10">
+      <c r="W251" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X251" s="10">
+      <c r="X251" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y251" s="10">
+      <c r="Y251" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z251" s="10">
+      <c r="Z251" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA251" s="11">
+      <c r="AA251" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB251" s="1">
@@ -21214,19 +21217,19 @@
       <c r="K252" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L252" s="1">
+      <c r="L252" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M252" s="1">
+      <c r="M252" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N252" s="1">
+      <c r="N252" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O252" s="1">
+      <c r="O252" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P252" s="7">
+      <c r="P252" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q252" s="2">
@@ -21238,28 +21241,28 @@
       <c r="S252" s="9">
         <v>20000</v>
       </c>
-      <c r="T252" s="1">
+      <c r="T252" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U252" s="7">
+      <c r="U252" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V252" s="11">
+      <c r="V252" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W252" s="10">
+      <c r="W252" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X252" s="10">
+      <c r="X252" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y252" s="10">
+      <c r="Y252" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z252" s="10">
+      <c r="Z252" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA252" s="11">
+      <c r="AA252" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB252" s="1">
@@ -21315,19 +21318,19 @@
       <c r="K253" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L253" s="1">
+      <c r="L253" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M253" s="1">
+      <c r="M253" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N253" s="1">
+      <c r="N253" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O253" s="1">
+      <c r="O253" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P253" s="7">
+      <c r="P253" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q253" s="2">
@@ -21339,28 +21342,28 @@
       <c r="S253" s="9">
         <v>20000</v>
       </c>
-      <c r="T253" s="1">
+      <c r="T253" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U253" s="7">
+      <c r="U253" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V253" s="11">
+      <c r="V253" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W253" s="10">
+      <c r="W253" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X253" s="10">
+      <c r="X253" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y253" s="10">
+      <c r="Y253" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z253" s="10">
+      <c r="Z253" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA253" s="11">
+      <c r="AA253" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB253" s="1">
@@ -21419,19 +21422,19 @@
       <c r="K254" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L254" s="1">
+      <c r="L254" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M254" s="1">
+      <c r="M254" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N254" s="1">
+      <c r="N254" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O254" s="1">
+      <c r="O254" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P254" s="7">
+      <c r="P254" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q254" s="2">
@@ -21443,28 +21446,28 @@
       <c r="S254" s="9">
         <v>20000</v>
       </c>
-      <c r="T254" s="1">
+      <c r="T254" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U254" s="7">
+      <c r="U254" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V254" s="11">
+      <c r="V254" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W254" s="10">
+      <c r="W254" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X254" s="10">
+      <c r="X254" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y254" s="10">
+      <c r="Y254" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z254" s="10">
+      <c r="Z254" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA254" s="11">
+      <c r="AA254" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB254" s="1">
@@ -21520,19 +21523,19 @@
       <c r="K255" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L255" s="1">
+      <c r="L255" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M255" s="1">
+      <c r="M255" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N255" s="1">
+      <c r="N255" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O255" s="1">
+      <c r="O255" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P255" s="7">
+      <c r="P255" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q255" s="2">
@@ -21544,28 +21547,28 @@
       <c r="S255" s="9">
         <v>20000</v>
       </c>
-      <c r="T255" s="1">
+      <c r="T255" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U255" s="7">
+      <c r="U255" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V255" s="11">
+      <c r="V255" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W255" s="10">
+      <c r="W255" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X255" s="10">
+      <c r="X255" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y255" s="10">
+      <c r="Y255" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z255" s="10">
+      <c r="Z255" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA255" s="11">
+      <c r="AA255" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB255" s="1">
@@ -21621,19 +21624,19 @@
       <c r="K256" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L256" s="1">
+      <c r="L256" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M256" s="1">
+      <c r="M256" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N256" s="1">
+      <c r="N256" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O256" s="1">
+      <c r="O256" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P256" s="7">
+      <c r="P256" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q256" s="2">
@@ -21645,28 +21648,28 @@
       <c r="S256" s="9">
         <v>20000</v>
       </c>
-      <c r="T256" s="1">
+      <c r="T256" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U256" s="7">
+      <c r="U256" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V256" s="7">
+      <c r="V256" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W256" s="1">
+      <c r="W256" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X256" s="1">
+      <c r="X256" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y256" s="1">
+      <c r="Y256" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z256" s="1">
+      <c r="Z256" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA256" s="7">
+      <c r="AA256" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB256" s="1">
@@ -21722,19 +21725,19 @@
       <c r="K257" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L257" s="1">
+      <c r="L257" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M257" s="1">
+      <c r="M257" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N257" s="1">
+      <c r="N257" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O257" s="1">
+      <c r="O257" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P257" s="7">
+      <c r="P257" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q257" s="2">
@@ -21746,28 +21749,28 @@
       <c r="S257" s="9">
         <v>20000</v>
       </c>
-      <c r="T257" s="1">
+      <c r="T257" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U257" s="7">
+      <c r="U257" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V257" s="7">
+      <c r="V257" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W257" s="1">
+      <c r="W257" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X257" s="1">
+      <c r="X257" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y257" s="1">
+      <c r="Y257" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z257" s="1">
+      <c r="Z257" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA257" s="7">
+      <c r="AA257" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB257" s="1">
@@ -21823,19 +21826,19 @@
       <c r="K258" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L258" s="1">
+      <c r="L258" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M258" s="1">
+      <c r="M258" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N258" s="1">
+      <c r="N258" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O258" s="1">
+      <c r="O258" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P258" s="7">
+      <c r="P258" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q258" s="2">
@@ -21847,28 +21850,28 @@
       <c r="S258" s="9">
         <v>20000</v>
       </c>
-      <c r="T258" s="1">
+      <c r="T258" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U258" s="7">
+      <c r="U258" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V258" s="7">
+      <c r="V258" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W258" s="1">
+      <c r="W258" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X258" s="1">
+      <c r="X258" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y258" s="1">
+      <c r="Y258" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z258" s="1">
+      <c r="Z258" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA258" s="7">
+      <c r="AA258" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB258" s="1">
@@ -21924,19 +21927,19 @@
       <c r="K259" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L259" s="1">
+      <c r="L259" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M259" s="1">
+      <c r="M259" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N259" s="1">
+      <c r="N259" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O259" s="1">
+      <c r="O259" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P259" s="7">
+      <c r="P259" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q259" s="2">
@@ -21948,28 +21951,28 @@
       <c r="S259" s="9">
         <v>20000</v>
       </c>
-      <c r="T259" s="1">
+      <c r="T259" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U259" s="7">
+      <c r="U259" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V259" s="7">
+      <c r="V259" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W259" s="1">
+      <c r="W259" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X259" s="1">
+      <c r="X259" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y259" s="1">
+      <c r="Y259" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z259" s="1">
+      <c r="Z259" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA259" s="7">
+      <c r="AA259" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB259" s="1">
@@ -22028,19 +22031,19 @@
       <c r="K260" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L260" s="1">
+      <c r="L260" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M260" s="1">
+      <c r="M260" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N260" s="1">
+      <c r="N260" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O260" s="1">
+      <c r="O260" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P260" s="7">
+      <c r="P260" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q260" s="2">
@@ -22052,28 +22055,28 @@
       <c r="S260" s="9">
         <v>20000</v>
       </c>
-      <c r="T260" s="1">
+      <c r="T260" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U260" s="7">
+      <c r="U260" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V260" s="7">
+      <c r="V260" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W260" s="1">
+      <c r="W260" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X260" s="1">
+      <c r="X260" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y260" s="1">
+      <c r="Y260" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z260" s="1">
+      <c r="Z260" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA260" s="7">
+      <c r="AA260" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB260" s="1">
@@ -22132,19 +22135,19 @@
       <c r="K261" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L261" s="1">
+      <c r="L261" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M261" s="1">
+      <c r="M261" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N261" s="1">
+      <c r="N261" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O261" s="1">
+      <c r="O261" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P261" s="7">
+      <c r="P261" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q261" s="2">
@@ -22156,28 +22159,28 @@
       <c r="S261" s="9">
         <v>20000</v>
       </c>
-      <c r="T261" s="1">
+      <c r="T261" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U261" s="7">
+      <c r="U261" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V261" s="7">
+      <c r="V261" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W261" s="1">
+      <c r="W261" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X261" s="1">
+      <c r="X261" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y261" s="1">
+      <c r="Y261" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z261" s="1">
+      <c r="Z261" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA261" s="7">
+      <c r="AA261" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB261" s="1">
@@ -22236,19 +22239,19 @@
       <c r="K262" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L262" s="1">
+      <c r="L262" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M262" s="1">
+      <c r="M262" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N262" s="1">
+      <c r="N262" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O262" s="1">
+      <c r="O262" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P262" s="7">
+      <c r="P262" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q262" s="2">
@@ -22260,28 +22263,28 @@
       <c r="S262" s="9">
         <v>20000</v>
       </c>
-      <c r="T262" s="1">
+      <c r="T262" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U262" s="7">
+      <c r="U262" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V262" s="7">
+      <c r="V262" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W262" s="1">
+      <c r="W262" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X262" s="1">
+      <c r="X262" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y262" s="1">
+      <c r="Y262" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z262" s="1">
+      <c r="Z262" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA262" s="7">
+      <c r="AA262" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB262" s="1">
@@ -22337,19 +22340,19 @@
       <c r="K263" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L263" s="1">
+      <c r="L263" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M263" s="1">
+      <c r="M263" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N263" s="1">
+      <c r="N263" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O263" s="1">
+      <c r="O263" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P263" s="7">
+      <c r="P263" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q263" s="2">
@@ -22361,28 +22364,28 @@
       <c r="S263" s="9">
         <v>20000</v>
       </c>
-      <c r="T263" s="1">
+      <c r="T263" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U263" s="7">
+      <c r="U263" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V263" s="7">
+      <c r="V263" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W263" s="1">
+      <c r="W263" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X263" s="1">
+      <c r="X263" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y263" s="1">
+      <c r="Y263" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z263" s="1">
+      <c r="Z263" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA263" s="7">
+      <c r="AA263" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB263" s="1">
@@ -22438,19 +22441,19 @@
       <c r="K264" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L264" s="1">
+      <c r="L264" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M264" s="1">
+      <c r="M264" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N264" s="1">
+      <c r="N264" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O264" s="1">
+      <c r="O264" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P264" s="7">
+      <c r="P264" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q264" s="2">
@@ -22462,28 +22465,28 @@
       <c r="S264" s="9">
         <v>20000</v>
       </c>
-      <c r="T264" s="1">
+      <c r="T264" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U264" s="7">
+      <c r="U264" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V264" s="7">
+      <c r="V264" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W264" s="1">
+      <c r="W264" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X264" s="1">
+      <c r="X264" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y264" s="1">
+      <c r="Y264" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z264" s="1">
+      <c r="Z264" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA264" s="7">
+      <c r="AA264" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB264" s="1">
@@ -22539,19 +22542,19 @@
       <c r="K265" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L265" s="1">
+      <c r="L265" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M265" s="1">
+      <c r="M265" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N265" s="1">
+      <c r="N265" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O265" s="1">
+      <c r="O265" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P265" s="7">
+      <c r="P265" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q265" s="2">
@@ -22563,28 +22566,28 @@
       <c r="S265" s="9">
         <v>20000</v>
       </c>
-      <c r="T265" s="1">
+      <c r="T265" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U265" s="7">
+      <c r="U265" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V265" s="7">
+      <c r="V265" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W265" s="1">
+      <c r="W265" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X265" s="1">
+      <c r="X265" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y265" s="1">
+      <c r="Y265" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z265" s="1">
+      <c r="Z265" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA265" s="7">
+      <c r="AA265" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB265" s="1">
@@ -22640,19 +22643,19 @@
       <c r="K266" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L266" s="1">
+      <c r="L266" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M266" s="1">
+      <c r="M266" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N266" s="1">
+      <c r="N266" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O266" s="1">
+      <c r="O266" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P266" s="7">
+      <c r="P266" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q266" s="2">
@@ -22664,28 +22667,28 @@
       <c r="S266" s="9">
         <v>20000</v>
       </c>
-      <c r="T266" s="1">
+      <c r="T266" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U266" s="7">
+      <c r="U266" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V266" s="7">
+      <c r="V266" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W266" s="1">
+      <c r="W266" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X266" s="1">
+      <c r="X266" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y266" s="1">
+      <c r="Y266" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z266" s="1">
+      <c r="Z266" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA266" s="7">
+      <c r="AA266" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB266" s="1">
@@ -22741,19 +22744,19 @@
       <c r="K267" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L267" s="1">
+      <c r="L267" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M267" s="1">
+      <c r="M267" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N267" s="1">
+      <c r="N267" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O267" s="1">
+      <c r="O267" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P267" s="7">
+      <c r="P267" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q267" s="2">
@@ -22765,28 +22768,28 @@
       <c r="S267" s="9">
         <v>20000</v>
       </c>
-      <c r="T267" s="1">
+      <c r="T267" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U267" s="7">
+      <c r="U267" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V267" s="7">
+      <c r="V267" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W267" s="1">
+      <c r="W267" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X267" s="1">
+      <c r="X267" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y267" s="1">
+      <c r="Y267" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z267" s="1">
+      <c r="Z267" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA267" s="7">
+      <c r="AA267" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB267" s="1">
@@ -22842,19 +22845,19 @@
       <c r="K268" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L268" s="1">
+      <c r="L268" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M268" s="1">
+      <c r="M268" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N268" s="1">
+      <c r="N268" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O268" s="1">
+      <c r="O268" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P268" s="7">
+      <c r="P268" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q268" s="2">
@@ -22866,28 +22869,28 @@
       <c r="S268" s="9">
         <v>20000</v>
       </c>
-      <c r="T268" s="1">
+      <c r="T268" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U268" s="7">
+      <c r="U268" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V268" s="7">
+      <c r="V268" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W268" s="1">
+      <c r="W268" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X268" s="1">
+      <c r="X268" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y268" s="1">
+      <c r="Y268" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z268" s="1">
+      <c r="Z268" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA268" s="7">
+      <c r="AA268" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB268" s="1">
@@ -22946,19 +22949,19 @@
       <c r="K269" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L269" s="1">
+      <c r="L269" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M269" s="1">
+      <c r="M269" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N269" s="1">
+      <c r="N269" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O269" s="1">
+      <c r="O269" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P269" s="7">
+      <c r="P269" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q269" s="2">
@@ -22970,28 +22973,28 @@
       <c r="S269" s="9">
         <v>20000</v>
       </c>
-      <c r="T269" s="1">
+      <c r="T269" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U269" s="7">
+      <c r="U269" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V269" s="7">
+      <c r="V269" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W269" s="1">
+      <c r="W269" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X269" s="1">
+      <c r="X269" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y269" s="1">
+      <c r="Y269" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z269" s="1">
+      <c r="Z269" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA269" s="7">
+      <c r="AA269" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB269" s="1">
@@ -23050,19 +23053,19 @@
       <c r="K270" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L270" s="1">
+      <c r="L270" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M270" s="1">
+      <c r="M270" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N270" s="1">
+      <c r="N270" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O270" s="1">
+      <c r="O270" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P270" s="7">
+      <c r="P270" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q270" s="2">
@@ -23074,28 +23077,28 @@
       <c r="S270" s="9">
         <v>20000</v>
       </c>
-      <c r="T270" s="1">
+      <c r="T270" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U270" s="7">
+      <c r="U270" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V270" s="7">
+      <c r="V270" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W270" s="1">
+      <c r="W270" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X270" s="1">
+      <c r="X270" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y270" s="1">
+      <c r="Y270" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z270" s="1">
+      <c r="Z270" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA270" s="7">
+      <c r="AA270" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB270" s="1">
@@ -23151,19 +23154,19 @@
       <c r="K271" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L271" s="1">
+      <c r="L271" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M271" s="1">
+      <c r="M271" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N271" s="1">
+      <c r="N271" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O271" s="1">
+      <c r="O271" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P271" s="7">
+      <c r="P271" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q271" s="2">
@@ -23175,28 +23178,28 @@
       <c r="S271" s="9">
         <v>20000</v>
       </c>
-      <c r="T271" s="1">
+      <c r="T271" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U271" s="7">
+      <c r="U271" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V271" s="7">
+      <c r="V271" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W271" s="1">
+      <c r="W271" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X271" s="1">
+      <c r="X271" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y271" s="1">
+      <c r="Y271" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z271" s="1">
+      <c r="Z271" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA271" s="7">
+      <c r="AA271" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB271" s="1">
@@ -23252,19 +23255,19 @@
       <c r="K272" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L272" s="1">
+      <c r="L272" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M272" s="1">
+      <c r="M272" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N272" s="1">
+      <c r="N272" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O272" s="1">
+      <c r="O272" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P272" s="7">
+      <c r="P272" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q272" s="2">
@@ -23276,28 +23279,28 @@
       <c r="S272" s="9">
         <v>20000</v>
       </c>
-      <c r="T272" s="1">
+      <c r="T272" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U272" s="7">
+      <c r="U272" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V272" s="7">
+      <c r="V272" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W272" s="1">
+      <c r="W272" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X272" s="1">
+      <c r="X272" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y272" s="1">
+      <c r="Y272" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z272" s="1">
+      <c r="Z272" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA272" s="7">
+      <c r="AA272" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB272" s="1">
@@ -23353,19 +23356,19 @@
       <c r="K273" s="7">
         <v>0.57208320000031898</v>
       </c>
-      <c r="L273" s="1">
+      <c r="L273" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="M273" s="1">
+      <c r="M273" s="2">
         <v>1111.40484346429</v>
       </c>
-      <c r="N273" s="1">
+      <c r="N273" s="2">
         <v>3398.2406388857298</v>
       </c>
-      <c r="O273" s="1">
+      <c r="O273" s="2">
         <v>31770.0440862633</v>
       </c>
-      <c r="P273" s="7">
+      <c r="P273" s="9">
         <v>297017.13577707898</v>
       </c>
       <c r="Q273" s="2">
@@ -23377,28 +23380,28 @@
       <c r="S273" s="9">
         <v>20000</v>
       </c>
-      <c r="T273" s="1">
+      <c r="T273" s="2">
         <v>118.879945365289</v>
       </c>
-      <c r="U273" s="7">
+      <c r="U273" s="9">
         <v>118.879945365289</v>
       </c>
-      <c r="V273" s="7">
+      <c r="V273" s="9">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W273" s="1">
+      <c r="W273" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X273" s="1">
+      <c r="X273" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y273" s="1">
+      <c r="Y273" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z273" s="1">
+      <c r="Z273" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA273" s="7">
+      <c r="AA273" s="9">
         <v>148508.56788853899</v>
       </c>
       <c r="AB273" s="1">
@@ -33771,13 +33774,13 @@
       <c r="P376" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q376" s="2">
+      <c r="Q376" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R376" s="2">
+      <c r="R376" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S376" s="9">
+      <c r="S376" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T376" s="1">
@@ -33789,28 +33792,28 @@
       <c r="V376" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W376" s="1">
+      <c r="W376" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X376" s="1">
+      <c r="X376" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y376" s="1">
+      <c r="Y376" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z376" s="1">
+      <c r="Z376" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA376" s="7">
+      <c r="AA376" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB376" s="1">
+      <c r="AB376" s="2">
         <v>130</v>
       </c>
-      <c r="AC376" s="1">
+      <c r="AC376" s="2">
         <v>300</v>
       </c>
-      <c r="AD376" s="7">
+      <c r="AD376" s="9">
         <v>10000</v>
       </c>
       <c r="AE376" s="1">
@@ -33872,13 +33875,13 @@
       <c r="P377" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q377" s="2">
+      <c r="Q377" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R377" s="2">
+      <c r="R377" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S377" s="9">
+      <c r="S377" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T377" s="1">
@@ -33890,28 +33893,28 @@
       <c r="V377" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W377" s="1">
+      <c r="W377" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X377" s="1">
+      <c r="X377" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y377" s="1">
+      <c r="Y377" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z377" s="1">
+      <c r="Z377" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA377" s="7">
+      <c r="AA377" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB377" s="1">
+      <c r="AB377" s="2">
         <v>130</v>
       </c>
-      <c r="AC377" s="1">
+      <c r="AC377" s="2">
         <v>300</v>
       </c>
-      <c r="AD377" s="7">
+      <c r="AD377" s="9">
         <v>10000</v>
       </c>
       <c r="AE377" s="1">
@@ -33973,13 +33976,13 @@
       <c r="P378" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q378" s="2">
+      <c r="Q378" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R378" s="2">
+      <c r="R378" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S378" s="9">
+      <c r="S378" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T378" s="1">
@@ -33991,28 +33994,28 @@
       <c r="V378" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W378" s="1">
+      <c r="W378" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X378" s="1">
+      <c r="X378" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y378" s="1">
+      <c r="Y378" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z378" s="1">
+      <c r="Z378" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA378" s="7">
+      <c r="AA378" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB378" s="1">
+      <c r="AB378" s="2">
         <v>130</v>
       </c>
-      <c r="AC378" s="1">
+      <c r="AC378" s="2">
         <v>300</v>
       </c>
-      <c r="AD378" s="7">
+      <c r="AD378" s="9">
         <v>10000</v>
       </c>
       <c r="AE378" s="1">
@@ -34074,13 +34077,13 @@
       <c r="P379" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q379" s="2">
+      <c r="Q379" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R379" s="2">
+      <c r="R379" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S379" s="9">
+      <c r="S379" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T379" s="1">
@@ -34092,28 +34095,28 @@
       <c r="V379" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W379" s="1">
+      <c r="W379" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X379" s="1">
+      <c r="X379" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y379" s="1">
+      <c r="Y379" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z379" s="1">
+      <c r="Z379" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA379" s="7">
+      <c r="AA379" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB379" s="1">
+      <c r="AB379" s="2">
         <v>130</v>
       </c>
-      <c r="AC379" s="1">
+      <c r="AC379" s="2">
         <v>300</v>
       </c>
-      <c r="AD379" s="7">
+      <c r="AD379" s="9">
         <v>10000</v>
       </c>
       <c r="AE379" s="1">
@@ -34175,13 +34178,13 @@
       <c r="P380" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q380" s="2">
+      <c r="Q380" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R380" s="2">
+      <c r="R380" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S380" s="9">
+      <c r="S380" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T380" s="1">
@@ -34193,28 +34196,28 @@
       <c r="V380" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W380" s="1">
+      <c r="W380" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X380" s="1">
+      <c r="X380" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y380" s="1">
+      <c r="Y380" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z380" s="1">
+      <c r="Z380" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA380" s="7">
+      <c r="AA380" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB380" s="1">
+      <c r="AB380" s="2">
         <v>130</v>
       </c>
-      <c r="AC380" s="1">
+      <c r="AC380" s="2">
         <v>300</v>
       </c>
-      <c r="AD380" s="7">
+      <c r="AD380" s="9">
         <v>10000</v>
       </c>
       <c r="AE380" s="1">
@@ -34276,13 +34279,13 @@
       <c r="P381" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q381" s="2">
+      <c r="Q381" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R381" s="2">
+      <c r="R381" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S381" s="9">
+      <c r="S381" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T381" s="1">
@@ -34294,28 +34297,28 @@
       <c r="V381" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W381" s="1">
+      <c r="W381" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X381" s="1">
+      <c r="X381" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y381" s="1">
+      <c r="Y381" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z381" s="1">
+      <c r="Z381" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA381" s="7">
+      <c r="AA381" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB381" s="1">
+      <c r="AB381" s="2">
         <v>130</v>
       </c>
-      <c r="AC381" s="1">
+      <c r="AC381" s="2">
         <v>300</v>
       </c>
-      <c r="AD381" s="7">
+      <c r="AD381" s="9">
         <v>10000</v>
       </c>
       <c r="AE381" s="1">
@@ -34377,13 +34380,13 @@
       <c r="P382" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q382" s="2">
+      <c r="Q382" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R382" s="2">
+      <c r="R382" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S382" s="9">
+      <c r="S382" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T382" s="1">
@@ -34395,28 +34398,28 @@
       <c r="V382" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W382" s="1">
+      <c r="W382" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X382" s="1">
+      <c r="X382" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y382" s="1">
+      <c r="Y382" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z382" s="1">
+      <c r="Z382" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA382" s="7">
+      <c r="AA382" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB382" s="1">
+      <c r="AB382" s="2">
         <v>130</v>
       </c>
-      <c r="AC382" s="1">
+      <c r="AC382" s="2">
         <v>300</v>
       </c>
-      <c r="AD382" s="7">
+      <c r="AD382" s="9">
         <v>10000</v>
       </c>
       <c r="AE382" s="1">
@@ -34478,13 +34481,13 @@
       <c r="P383" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q383" s="2">
+      <c r="Q383" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R383" s="2">
+      <c r="R383" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S383" s="9">
+      <c r="S383" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T383" s="1">
@@ -34496,28 +34499,28 @@
       <c r="V383" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W383" s="1">
+      <c r="W383" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X383" s="1">
+      <c r="X383" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y383" s="1">
+      <c r="Y383" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z383" s="1">
+      <c r="Z383" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA383" s="7">
+      <c r="AA383" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB383" s="1">
+      <c r="AB383" s="2">
         <v>130</v>
       </c>
-      <c r="AC383" s="1">
+      <c r="AC383" s="2">
         <v>300</v>
       </c>
-      <c r="AD383" s="7">
+      <c r="AD383" s="9">
         <v>10000</v>
       </c>
       <c r="AE383" s="1">
@@ -34579,13 +34582,13 @@
       <c r="P384" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q384" s="2">
+      <c r="Q384" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R384" s="2">
+      <c r="R384" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S384" s="9">
+      <c r="S384" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T384" s="1">
@@ -34597,28 +34600,28 @@
       <c r="V384" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W384" s="1">
+      <c r="W384" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X384" s="1">
+      <c r="X384" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y384" s="1">
+      <c r="Y384" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z384" s="1">
+      <c r="Z384" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA384" s="7">
+      <c r="AA384" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB384" s="1">
+      <c r="AB384" s="2">
         <v>130</v>
       </c>
-      <c r="AC384" s="1">
+      <c r="AC384" s="2">
         <v>300</v>
       </c>
-      <c r="AD384" s="7">
+      <c r="AD384" s="9">
         <v>10000</v>
       </c>
       <c r="AE384" s="1">
@@ -34680,13 +34683,13 @@
       <c r="P385" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q385" s="2">
+      <c r="Q385" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R385" s="2">
+      <c r="R385" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S385" s="9">
+      <c r="S385" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T385" s="1">
@@ -34698,28 +34701,28 @@
       <c r="V385" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W385" s="1">
+      <c r="W385" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X385" s="1">
+      <c r="X385" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y385" s="1">
+      <c r="Y385" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z385" s="1">
+      <c r="Z385" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA385" s="7">
+      <c r="AA385" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB385" s="1">
+      <c r="AB385" s="2">
         <v>130</v>
       </c>
-      <c r="AC385" s="1">
+      <c r="AC385" s="2">
         <v>300</v>
       </c>
-      <c r="AD385" s="7">
+      <c r="AD385" s="9">
         <v>10000</v>
       </c>
       <c r="AE385" s="1">
@@ -34781,13 +34784,13 @@
       <c r="P386" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q386" s="2">
+      <c r="Q386" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R386" s="2">
+      <c r="R386" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S386" s="9">
+      <c r="S386" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T386" s="1">
@@ -34799,28 +34802,28 @@
       <c r="V386" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W386" s="1">
+      <c r="W386" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X386" s="1">
+      <c r="X386" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y386" s="1">
+      <c r="Y386" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z386" s="1">
+      <c r="Z386" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA386" s="7">
+      <c r="AA386" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB386" s="1">
+      <c r="AB386" s="2">
         <v>130</v>
       </c>
-      <c r="AC386" s="1">
+      <c r="AC386" s="2">
         <v>300</v>
       </c>
-      <c r="AD386" s="7">
+      <c r="AD386" s="9">
         <v>10000</v>
       </c>
       <c r="AE386" s="1">
@@ -34882,13 +34885,13 @@
       <c r="P387" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q387" s="2">
+      <c r="Q387" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R387" s="2">
+      <c r="R387" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S387" s="9">
+      <c r="S387" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T387" s="1">
@@ -34900,28 +34903,28 @@
       <c r="V387" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W387" s="1">
+      <c r="W387" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X387" s="1">
+      <c r="X387" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y387" s="1">
+      <c r="Y387" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z387" s="1">
+      <c r="Z387" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA387" s="7">
+      <c r="AA387" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB387" s="1">
+      <c r="AB387" s="2">
         <v>130</v>
       </c>
-      <c r="AC387" s="1">
+      <c r="AC387" s="2">
         <v>300</v>
       </c>
-      <c r="AD387" s="7">
+      <c r="AD387" s="9">
         <v>10000</v>
       </c>
       <c r="AE387" s="1">
@@ -34986,13 +34989,13 @@
       <c r="P388" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q388" s="2">
+      <c r="Q388" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R388" s="2">
+      <c r="R388" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S388" s="9">
+      <c r="S388" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T388" s="1">
@@ -35004,28 +35007,28 @@
       <c r="V388" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W388" s="1">
+      <c r="W388" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X388" s="1">
+      <c r="X388" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y388" s="1">
+      <c r="Y388" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z388" s="1">
+      <c r="Z388" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA388" s="7">
+      <c r="AA388" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB388" s="1">
+      <c r="AB388" s="2">
         <v>130</v>
       </c>
-      <c r="AC388" s="1">
+      <c r="AC388" s="2">
         <v>300</v>
       </c>
-      <c r="AD388" s="7">
+      <c r="AD388" s="9">
         <v>10000</v>
       </c>
       <c r="AE388" s="1">
@@ -35087,13 +35090,13 @@
       <c r="P389" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q389" s="2">
+      <c r="Q389" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R389" s="2">
+      <c r="R389" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S389" s="9">
+      <c r="S389" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T389" s="1">
@@ -35105,28 +35108,28 @@
       <c r="V389" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W389" s="1">
+      <c r="W389" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X389" s="1">
+      <c r="X389" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y389" s="1">
+      <c r="Y389" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z389" s="1">
+      <c r="Z389" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA389" s="7">
+      <c r="AA389" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB389" s="1">
+      <c r="AB389" s="2">
         <v>130</v>
       </c>
-      <c r="AC389" s="1">
+      <c r="AC389" s="2">
         <v>300</v>
       </c>
-      <c r="AD389" s="7">
+      <c r="AD389" s="9">
         <v>10000</v>
       </c>
       <c r="AE389" s="1">
@@ -35191,13 +35194,13 @@
       <c r="P390" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q390" s="2">
+      <c r="Q390" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R390" s="2">
+      <c r="R390" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S390" s="9">
+      <c r="S390" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T390" s="1">
@@ -35209,28 +35212,28 @@
       <c r="V390" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W390" s="1">
+      <c r="W390" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X390" s="1">
+      <c r="X390" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y390" s="1">
+      <c r="Y390" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z390" s="1">
+      <c r="Z390" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA390" s="7">
+      <c r="AA390" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB390" s="1">
+      <c r="AB390" s="2">
         <v>130</v>
       </c>
-      <c r="AC390" s="1">
+      <c r="AC390" s="2">
         <v>300</v>
       </c>
-      <c r="AD390" s="7">
+      <c r="AD390" s="9">
         <v>10000</v>
       </c>
       <c r="AE390" s="1">
@@ -35292,13 +35295,13 @@
       <c r="P391" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q391" s="2">
+      <c r="Q391" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R391" s="2">
+      <c r="R391" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S391" s="9">
+      <c r="S391" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T391" s="1">
@@ -35310,28 +35313,28 @@
       <c r="V391" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W391" s="1">
+      <c r="W391" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X391" s="1">
+      <c r="X391" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y391" s="1">
+      <c r="Y391" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z391" s="1">
+      <c r="Z391" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA391" s="7">
+      <c r="AA391" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB391" s="1">
+      <c r="AB391" s="2">
         <v>130</v>
       </c>
-      <c r="AC391" s="1">
+      <c r="AC391" s="2">
         <v>300</v>
       </c>
-      <c r="AD391" s="7">
+      <c r="AD391" s="9">
         <v>10000</v>
       </c>
       <c r="AE391" s="1">
@@ -35393,13 +35396,13 @@
       <c r="P392" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q392" s="2">
+      <c r="Q392" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R392" s="2">
+      <c r="R392" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S392" s="9">
+      <c r="S392" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T392" s="1">
@@ -35411,28 +35414,28 @@
       <c r="V392" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W392" s="1">
+      <c r="W392" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X392" s="1">
+      <c r="X392" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y392" s="1">
+      <c r="Y392" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z392" s="1">
+      <c r="Z392" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA392" s="7">
+      <c r="AA392" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB392" s="1">
+      <c r="AB392" s="2">
         <v>130</v>
       </c>
-      <c r="AC392" s="1">
+      <c r="AC392" s="2">
         <v>300</v>
       </c>
-      <c r="AD392" s="7">
+      <c r="AD392" s="9">
         <v>10000</v>
       </c>
       <c r="AE392" s="1">
@@ -35494,13 +35497,13 @@
       <c r="P393" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q393" s="2">
+      <c r="Q393" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R393" s="2">
+      <c r="R393" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S393" s="9">
+      <c r="S393" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T393" s="1">
@@ -35512,28 +35515,28 @@
       <c r="V393" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W393" s="1">
+      <c r="W393" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X393" s="1">
+      <c r="X393" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y393" s="1">
+      <c r="Y393" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z393" s="1">
+      <c r="Z393" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA393" s="7">
+      <c r="AA393" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB393" s="1">
+      <c r="AB393" s="2">
         <v>130</v>
       </c>
-      <c r="AC393" s="1">
+      <c r="AC393" s="2">
         <v>300</v>
       </c>
-      <c r="AD393" s="7">
+      <c r="AD393" s="9">
         <v>10000</v>
       </c>
       <c r="AE393" s="1">
@@ -35595,13 +35598,13 @@
       <c r="P394" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q394" s="2">
+      <c r="Q394" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R394" s="2">
+      <c r="R394" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S394" s="9">
+      <c r="S394" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T394" s="1">
@@ -35613,28 +35616,28 @@
       <c r="V394" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W394" s="1">
+      <c r="W394" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X394" s="1">
+      <c r="X394" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y394" s="1">
+      <c r="Y394" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z394" s="1">
+      <c r="Z394" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA394" s="7">
+      <c r="AA394" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB394" s="1">
+      <c r="AB394" s="2">
         <v>130</v>
       </c>
-      <c r="AC394" s="1">
+      <c r="AC394" s="2">
         <v>300</v>
       </c>
-      <c r="AD394" s="7">
+      <c r="AD394" s="9">
         <v>10000</v>
       </c>
       <c r="AE394" s="1">
@@ -35696,13 +35699,13 @@
       <c r="P395" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q395" s="2">
+      <c r="Q395" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R395" s="2">
+      <c r="R395" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S395" s="9">
+      <c r="S395" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T395" s="1">
@@ -35714,28 +35717,28 @@
       <c r="V395" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W395" s="1">
+      <c r="W395" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X395" s="1">
+      <c r="X395" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y395" s="1">
+      <c r="Y395" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z395" s="1">
+      <c r="Z395" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA395" s="7">
+      <c r="AA395" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB395" s="1">
+      <c r="AB395" s="2">
         <v>130</v>
       </c>
-      <c r="AC395" s="1">
+      <c r="AC395" s="2">
         <v>300</v>
       </c>
-      <c r="AD395" s="7">
+      <c r="AD395" s="9">
         <v>10000</v>
       </c>
       <c r="AE395" s="1">
@@ -35800,13 +35803,13 @@
       <c r="P396" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q396" s="2">
+      <c r="Q396" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R396" s="2">
+      <c r="R396" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S396" s="9">
+      <c r="S396" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T396" s="1">
@@ -35818,28 +35821,28 @@
       <c r="V396" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W396" s="1">
+      <c r="W396" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X396" s="1">
+      <c r="X396" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y396" s="1">
+      <c r="Y396" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z396" s="1">
+      <c r="Z396" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA396" s="7">
+      <c r="AA396" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB396" s="1">
+      <c r="AB396" s="2">
         <v>130</v>
       </c>
-      <c r="AC396" s="1">
+      <c r="AC396" s="2">
         <v>300</v>
       </c>
-      <c r="AD396" s="7">
+      <c r="AD396" s="9">
         <v>10000</v>
       </c>
       <c r="AE396" s="1">
@@ -35904,13 +35907,13 @@
       <c r="P397" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q397" s="2">
+      <c r="Q397" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R397" s="2">
+      <c r="R397" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S397" s="9">
+      <c r="S397" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T397" s="1">
@@ -35922,28 +35925,28 @@
       <c r="V397" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W397" s="1">
+      <c r="W397" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X397" s="1">
+      <c r="X397" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y397" s="1">
+      <c r="Y397" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z397" s="1">
+      <c r="Z397" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA397" s="7">
+      <c r="AA397" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB397" s="1">
+      <c r="AB397" s="2">
         <v>130</v>
       </c>
-      <c r="AC397" s="1">
+      <c r="AC397" s="2">
         <v>300</v>
       </c>
-      <c r="AD397" s="7">
+      <c r="AD397" s="9">
         <v>10000</v>
       </c>
       <c r="AE397" s="1">
@@ -36008,13 +36011,13 @@
       <c r="P398" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q398" s="2">
+      <c r="Q398" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R398" s="2">
+      <c r="R398" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S398" s="9">
+      <c r="S398" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T398" s="1">
@@ -36026,28 +36029,28 @@
       <c r="V398" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W398" s="1">
+      <c r="W398" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X398" s="1">
+      <c r="X398" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y398" s="1">
+      <c r="Y398" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z398" s="1">
+      <c r="Z398" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA398" s="7">
+      <c r="AA398" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB398" s="1">
+      <c r="AB398" s="2">
         <v>130</v>
       </c>
-      <c r="AC398" s="1">
+      <c r="AC398" s="2">
         <v>300</v>
       </c>
-      <c r="AD398" s="7">
+      <c r="AD398" s="9">
         <v>10000</v>
       </c>
       <c r="AE398" s="1">
@@ -36109,13 +36112,13 @@
       <c r="P399" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q399" s="2">
+      <c r="Q399" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R399" s="2">
+      <c r="R399" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S399" s="9">
+      <c r="S399" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T399" s="1">
@@ -36127,28 +36130,28 @@
       <c r="V399" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W399" s="1">
+      <c r="W399" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X399" s="1">
+      <c r="X399" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y399" s="1">
+      <c r="Y399" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z399" s="1">
+      <c r="Z399" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA399" s="7">
+      <c r="AA399" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB399" s="1">
+      <c r="AB399" s="2">
         <v>130</v>
       </c>
-      <c r="AC399" s="1">
+      <c r="AC399" s="2">
         <v>300</v>
       </c>
-      <c r="AD399" s="7">
+      <c r="AD399" s="9">
         <v>10000</v>
       </c>
       <c r="AE399" s="1">
@@ -36210,13 +36213,13 @@
       <c r="P400" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q400" s="2">
+      <c r="Q400" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R400" s="2">
+      <c r="R400" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S400" s="9">
+      <c r="S400" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T400" s="1">
@@ -36228,28 +36231,28 @@
       <c r="V400" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W400" s="1">
+      <c r="W400" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X400" s="1">
+      <c r="X400" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y400" s="1">
+      <c r="Y400" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z400" s="1">
+      <c r="Z400" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA400" s="7">
+      <c r="AA400" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB400" s="1">
+      <c r="AB400" s="2">
         <v>130</v>
       </c>
-      <c r="AC400" s="1">
+      <c r="AC400" s="2">
         <v>300</v>
       </c>
-      <c r="AD400" s="7">
+      <c r="AD400" s="9">
         <v>10000</v>
       </c>
       <c r="AE400" s="1">
@@ -36311,13 +36314,13 @@
       <c r="P401" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q401" s="2">
+      <c r="Q401" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R401" s="2">
+      <c r="R401" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S401" s="9">
+      <c r="S401" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T401" s="1">
@@ -36329,28 +36332,28 @@
       <c r="V401" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W401" s="1">
+      <c r="W401" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X401" s="1">
+      <c r="X401" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y401" s="1">
+      <c r="Y401" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z401" s="1">
+      <c r="Z401" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA401" s="7">
+      <c r="AA401" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB401" s="1">
+      <c r="AB401" s="2">
         <v>130</v>
       </c>
-      <c r="AC401" s="1">
+      <c r="AC401" s="2">
         <v>300</v>
       </c>
-      <c r="AD401" s="7">
+      <c r="AD401" s="9">
         <v>10000</v>
       </c>
       <c r="AE401" s="1">
@@ -36412,13 +36415,13 @@
       <c r="P402" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q402" s="2">
+      <c r="Q402" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R402" s="2">
+      <c r="R402" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S402" s="9">
+      <c r="S402" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T402" s="1">
@@ -36430,28 +36433,28 @@
       <c r="V402" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W402" s="1">
+      <c r="W402" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X402" s="1">
+      <c r="X402" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y402" s="1">
+      <c r="Y402" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z402" s="1">
+      <c r="Z402" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA402" s="7">
+      <c r="AA402" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB402" s="1">
+      <c r="AB402" s="2">
         <v>130</v>
       </c>
-      <c r="AC402" s="1">
+      <c r="AC402" s="2">
         <v>300</v>
       </c>
-      <c r="AD402" s="7">
+      <c r="AD402" s="9">
         <v>10000</v>
       </c>
       <c r="AE402" s="1">
@@ -36513,13 +36516,13 @@
       <c r="P403" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q403" s="2">
+      <c r="Q403" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R403" s="2">
+      <c r="R403" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S403" s="9">
+      <c r="S403" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T403" s="1">
@@ -36531,28 +36534,28 @@
       <c r="V403" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W403" s="1">
+      <c r="W403" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X403" s="1">
+      <c r="X403" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y403" s="1">
+      <c r="Y403" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z403" s="1">
+      <c r="Z403" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA403" s="7">
+      <c r="AA403" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB403" s="1">
+      <c r="AB403" s="2">
         <v>130</v>
       </c>
-      <c r="AC403" s="1">
+      <c r="AC403" s="2">
         <v>300</v>
       </c>
-      <c r="AD403" s="7">
+      <c r="AD403" s="9">
         <v>10000</v>
       </c>
       <c r="AE403" s="1">
@@ -36614,13 +36617,13 @@
       <c r="P404" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q404" s="2">
+      <c r="Q404" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R404" s="2">
+      <c r="R404" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S404" s="9">
+      <c r="S404" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T404" s="1">
@@ -36632,28 +36635,28 @@
       <c r="V404" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W404" s="1">
+      <c r="W404" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X404" s="1">
+      <c r="X404" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y404" s="1">
+      <c r="Y404" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z404" s="1">
+      <c r="Z404" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA404" s="7">
+      <c r="AA404" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB404" s="1">
+      <c r="AB404" s="2">
         <v>130</v>
       </c>
-      <c r="AC404" s="1">
+      <c r="AC404" s="2">
         <v>300</v>
       </c>
-      <c r="AD404" s="7">
+      <c r="AD404" s="9">
         <v>10000</v>
       </c>
       <c r="AE404" s="1">
@@ -36718,13 +36721,13 @@
       <c r="P405" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q405" s="2">
+      <c r="Q405" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R405" s="2">
+      <c r="R405" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S405" s="9">
+      <c r="S405" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T405" s="1">
@@ -36736,28 +36739,28 @@
       <c r="V405" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W405" s="1">
+      <c r="W405" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X405" s="1">
+      <c r="X405" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y405" s="1">
+      <c r="Y405" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z405" s="1">
+      <c r="Z405" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA405" s="7">
+      <c r="AA405" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB405" s="1">
+      <c r="AB405" s="2">
         <v>130</v>
       </c>
-      <c r="AC405" s="1">
+      <c r="AC405" s="2">
         <v>300</v>
       </c>
-      <c r="AD405" s="7">
+      <c r="AD405" s="9">
         <v>10000</v>
       </c>
       <c r="AE405" s="1">
@@ -36822,13 +36825,13 @@
       <c r="P406" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q406" s="2">
+      <c r="Q406" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R406" s="2">
+      <c r="R406" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S406" s="9">
+      <c r="S406" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T406" s="1">
@@ -36840,28 +36843,28 @@
       <c r="V406" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W406" s="1">
+      <c r="W406" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X406" s="1">
+      <c r="X406" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y406" s="1">
+      <c r="Y406" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z406" s="1">
+      <c r="Z406" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA406" s="7">
+      <c r="AA406" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB406" s="1">
+      <c r="AB406" s="2">
         <v>130</v>
       </c>
-      <c r="AC406" s="1">
+      <c r="AC406" s="2">
         <v>300</v>
       </c>
-      <c r="AD406" s="7">
+      <c r="AD406" s="9">
         <v>10000</v>
       </c>
       <c r="AE406" s="1">
@@ -36923,13 +36926,13 @@
       <c r="P407" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q407" s="2">
+      <c r="Q407" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R407" s="2">
+      <c r="R407" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S407" s="9">
+      <c r="S407" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T407" s="1">
@@ -36941,28 +36944,28 @@
       <c r="V407" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W407" s="1">
+      <c r="W407" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X407" s="1">
+      <c r="X407" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y407" s="1">
+      <c r="Y407" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z407" s="1">
+      <c r="Z407" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA407" s="7">
+      <c r="AA407" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB407" s="1">
+      <c r="AB407" s="2">
         <v>130</v>
       </c>
-      <c r="AC407" s="1">
+      <c r="AC407" s="2">
         <v>300</v>
       </c>
-      <c r="AD407" s="7">
+      <c r="AD407" s="9">
         <v>10000</v>
       </c>
       <c r="AE407" s="1">
@@ -37024,13 +37027,13 @@
       <c r="P408" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q408" s="2">
+      <c r="Q408" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R408" s="2">
+      <c r="R408" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S408" s="9">
+      <c r="S408" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T408" s="1">
@@ -37042,28 +37045,28 @@
       <c r="V408" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W408" s="1">
+      <c r="W408" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X408" s="1">
+      <c r="X408" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y408" s="1">
+      <c r="Y408" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z408" s="1">
+      <c r="Z408" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA408" s="7">
+      <c r="AA408" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB408" s="1">
+      <c r="AB408" s="2">
         <v>130</v>
       </c>
-      <c r="AC408" s="1">
+      <c r="AC408" s="2">
         <v>300</v>
       </c>
-      <c r="AD408" s="7">
+      <c r="AD408" s="9">
         <v>10000</v>
       </c>
       <c r="AE408" s="1">
@@ -37125,13 +37128,13 @@
       <c r="P409" s="7">
         <v>6.8185752014940304</v>
       </c>
-      <c r="Q409" s="2">
+      <c r="Q409" s="1">
         <v>5.9687786960514197E-3</v>
       </c>
-      <c r="R409" s="2">
+      <c r="R409" s="1">
         <v>1.3774104683195501E-2</v>
       </c>
-      <c r="S409" s="9">
+      <c r="S409" s="7">
         <v>0.45913682277318602</v>
       </c>
       <c r="T409" s="1">
@@ -37143,28 +37146,28 @@
       <c r="V409" s="7">
         <v>0.28604160000015899</v>
       </c>
-      <c r="W409" s="1">
+      <c r="W409" s="2">
         <v>59.4399726826448</v>
       </c>
-      <c r="X409" s="1">
+      <c r="X409" s="2">
         <v>555.70242173214501</v>
       </c>
-      <c r="Y409" s="1">
+      <c r="Y409" s="2">
         <v>1699.1203194428599</v>
       </c>
-      <c r="Z409" s="1">
+      <c r="Z409" s="2">
         <v>15885.022043131599</v>
       </c>
-      <c r="AA409" s="7">
+      <c r="AA409" s="9">
         <v>148508.56788853899</v>
       </c>
-      <c r="AB409" s="1">
+      <c r="AB409" s="2">
         <v>130</v>
       </c>
-      <c r="AC409" s="1">
+      <c r="AC409" s="2">
         <v>300</v>
       </c>
-      <c r="AD409" s="7">
+      <c r="AD409" s="9">
         <v>10000</v>
       </c>
       <c r="AE409" s="1">
